--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB1A18-2BB9-4CFC-A228-5AA77E4997CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ip" sheetId="1" r:id="rId4"/>
+    <sheet name="ip" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -43,9 +52,6 @@
     <t>192.168.10.0</t>
   </si>
   <si>
-    <t>gépek</t>
-  </si>
-  <si>
     <t>172.16.10.0</t>
   </si>
   <si>
@@ -61,9 +67,6 @@
     <t>192.168.20.0</t>
   </si>
   <si>
-    <t>managger</t>
-  </si>
-  <si>
     <t>172.16.20.0</t>
   </si>
   <si>
@@ -98,32 +101,51 @@
   </si>
   <si>
     <t>192.168.60.0</t>
+  </si>
+  <si>
+    <t>natív</t>
+  </si>
+  <si>
+    <t>172.16.90.0</t>
+  </si>
+  <si>
+    <t>nativ</t>
+  </si>
+  <si>
+    <t>10.10.90.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
-      <color/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,13 +159,29 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
-    <border/>
-    <border>
+  <borders count="23">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -158,6 +196,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -172,6 +211,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -186,6 +226,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -200,6 +241,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -214,6 +256,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -228,6 +271,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -239,6 +283,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -250,6 +298,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -261,6 +313,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -269,127 +325,235 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -587,21 +751,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -618,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -668,355 +832,363 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}"/>
-  </a:extLst>
+  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="11.71"/>
-    <col customWidth="1" min="4" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="10.57"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="11.29"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>10</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="F6" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>30</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>19</v>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4">
+        <v>90</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12">
+        <v>90</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="31">
+        <v>101</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="K8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="6">
-        <v>101.0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="8" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="4">
+        <v>101</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6">
-        <v>40.0</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>60</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
-        <v>101.0</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
     </row>
-    <row r="9">
-      <c r="A9" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>101</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
     </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>60.0</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
-    <row r="11">
-      <c r="A11" s="13">
-        <v>101.0</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
     </row>
-    <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB1A18-2BB9-4CFC-A228-5AA77E4997CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45BCCD-0C8E-4368-BD74-7AF939FC1F2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ip" sheetId="1" r:id="rId1"/>
+    <sheet name="IP" sheetId="1" r:id="rId1"/>
+    <sheet name="Devices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -113,6 +114,144 @@
   </si>
   <si>
     <t>10.10.90.0</t>
+  </si>
+  <si>
+    <t>Main office</t>
+  </si>
+  <si>
+    <t>Device name</t>
+  </si>
+  <si>
+    <t>Sales office</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Remote Server Facility</t>
+  </si>
+  <si>
+    <t>R_main</t>
+  </si>
+  <si>
+    <t>G0/0</t>
+  </si>
+  <si>
+    <t>100.10.0.5/24</t>
+  </si>
+  <si>
+    <t>G2/0.10</t>
+  </si>
+  <si>
+    <t>G2/0.20</t>
+  </si>
+  <si>
+    <t>G2/0.30</t>
+  </si>
+  <si>
+    <t>G2/0.40</t>
+  </si>
+  <si>
+    <t>G2/0.50</t>
+  </si>
+  <si>
+    <t>G2/0.60</t>
+  </si>
+  <si>
+    <t>192.168.10.1/24</t>
+  </si>
+  <si>
+    <t>192.168.20.1/24</t>
+  </si>
+  <si>
+    <t>192.168.30.1/24</t>
+  </si>
+  <si>
+    <t>192.168.40.1/24</t>
+  </si>
+  <si>
+    <t>192.168.50.1/24</t>
+  </si>
+  <si>
+    <t>192.168.60.1/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sw_main </t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>Fa0/2</t>
+  </si>
+  <si>
+    <t>Fa0/3</t>
+  </si>
+  <si>
+    <t>Fa0/4</t>
+  </si>
+  <si>
+    <t>Fa0/5</t>
+  </si>
+  <si>
+    <t>Fa0/6</t>
+  </si>
+  <si>
+    <t>Fa0/7</t>
+  </si>
+  <si>
+    <t>Fa0/9</t>
+  </si>
+  <si>
+    <t>Fa0/10</t>
+  </si>
+  <si>
+    <t>Fa0/11</t>
+  </si>
+  <si>
+    <t>G0/1</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Sw_sales</t>
+  </si>
+  <si>
+    <t>IP/Connection</t>
+  </si>
+  <si>
+    <t>Vlan/trunk</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>192.168.20.254/24</t>
+  </si>
+  <si>
+    <t>192.168.40.254/24</t>
+  </si>
+  <si>
+    <t>192.168.50.254/24</t>
+  </si>
+  <si>
+    <t>192.168.30.254/24</t>
+  </si>
+  <si>
+    <t>LM_Linux_srv</t>
+  </si>
+  <si>
+    <t>Gig0</t>
+  </si>
+  <si>
+    <t>192.168.50.2/24</t>
+  </si>
+  <si>
+    <t>Net_ctrl</t>
+  </si>
+  <si>
+    <t>G0/2</t>
   </si>
 </sst>
 </file>
@@ -166,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -486,11 +625,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -501,17 +689,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,6 +708,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -840,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -862,30 +1079,30 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -908,19 +1125,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>10</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -937,19 +1154,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -966,13 +1183,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>30</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4">
@@ -987,50 +1204,50 @@
       <c r="I7" s="4">
         <v>90</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>40</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>90</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="27">
         <v>101</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>50</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="4">
@@ -1047,13 +1264,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="20">
         <v>60</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="4"/>
@@ -1064,13 +1281,13 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="18">
         <v>101</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="4"/>
@@ -1081,9 +1298,9 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="19"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -1092,9 +1309,9 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -1191,4 +1408,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="F1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="44">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="44">
+        <v>20</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="44">
+        <v>20</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="44">
+        <v>20</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="44">
+        <v>40</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="44">
+        <v>50</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="44">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="44">
+        <v>30</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="44">
+        <v>50</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="44">
+        <v>50</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE45BCCD-0C8E-4368-BD74-7AF939FC1F2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01530226-35B3-47D8-9ACD-A54E58912D1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -252,13 +252,46 @@
   </si>
   <si>
     <t>G0/2</t>
+  </si>
+  <si>
+    <t>192.168.50.10/24</t>
+  </si>
+  <si>
+    <t>Pc_Admin</t>
+  </si>
+  <si>
+    <t>Fa0</t>
+  </si>
+  <si>
+    <t>192.168.40.5/24</t>
+  </si>
+  <si>
+    <t>Pc_E1</t>
+  </si>
+  <si>
+    <t>Pc_E2</t>
+  </si>
+  <si>
+    <t>Pc_E3</t>
+  </si>
+  <si>
+    <t>Pc_E4</t>
+  </si>
+  <si>
+    <t>Pc_Boss</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>DHCP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -278,8 +311,15 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,8 +344,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -674,11 +732,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -708,6 +850,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,9 +861,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,20 +873,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1079,21 +1267,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="E3" s="31" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="I3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1412,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,13 +1622,13 @@
     <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
       <c r="F1" s="36" t="s">
         <v>33</v>
       </c>
@@ -1450,217 +1638,219 @@
       <c r="K1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="44" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="61" t="s">
         <v>47</v>
       </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="61" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="60">
         <v>20</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="46">
         <v>20</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="61" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="60">
         <v>20</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="46">
         <v>20</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="60">
         <v>40</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="61" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="36" t="s">
@@ -1671,105 +1861,213 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="46">
         <v>50</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="31" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="60">
         <v>20</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="61" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="46">
         <v>30</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="44" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="60">
         <v>50</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="61" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="60">
         <v>50</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="47" t="s">
         <v>75</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="46">
+        <v>50</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="60">
+        <v>40</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="46">
+        <v>20</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="60">
+        <v>20</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="46">
+        <v>20</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="60">
+        <v>20</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="46">
+        <v>30</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="64">
+        <v>20</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A21"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01530226-35B3-47D8-9ACD-A54E58912D1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E12D5-1CC2-4EB4-AE2C-5202F3D84041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
     <sheet name="Devices" sheetId="2" r:id="rId2"/>
+    <sheet name="Munka1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -239,9 +240,6 @@
     <t>192.168.30.254/24</t>
   </si>
   <si>
-    <t>LM_Linux_srv</t>
-  </si>
-  <si>
     <t>Gig0</t>
   </si>
   <si>
@@ -263,9 +261,6 @@
     <t>Fa0</t>
   </si>
   <si>
-    <t>192.168.40.5/24</t>
-  </si>
-  <si>
     <t>Pc_E1</t>
   </si>
   <si>
@@ -281,10 +276,82 @@
     <t>Pc_Boss</t>
   </si>
   <si>
-    <t>Printer</t>
-  </si>
-  <si>
     <t>DHCP</t>
+  </si>
+  <si>
+    <t>R_backup</t>
+  </si>
+  <si>
+    <t>42.234.4.10/30</t>
+  </si>
+  <si>
+    <t>192.168.10.2/24</t>
+  </si>
+  <si>
+    <t>192.168.20.2/24</t>
+  </si>
+  <si>
+    <t>192.168.30.2/24</t>
+  </si>
+  <si>
+    <t>192.168.40.2/24</t>
+  </si>
+  <si>
+    <t>192.168.60.2/24</t>
+  </si>
+  <si>
+    <t>192.168.50.11/24</t>
+  </si>
+  <si>
+    <t>192.168.40.10/24</t>
+  </si>
+  <si>
+    <t>192.168.10.10/24</t>
+  </si>
+  <si>
+    <t>Sw_main</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>192.168.10.254/24</t>
+  </si>
+  <si>
+    <t>S_printer</t>
+  </si>
+  <si>
+    <t>M_printer</t>
+  </si>
+  <si>
+    <t>Sales_pc1</t>
+  </si>
+  <si>
+    <t>Sales_pc2</t>
+  </si>
+  <si>
+    <t>RFID-reader</t>
+  </si>
+  <si>
+    <t>10.10.10.10/28</t>
+  </si>
+  <si>
+    <t>LM_Windows</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>LM_Syslog</t>
+  </si>
+  <si>
+    <t>LM_Linux_SRV</t>
+  </si>
+  <si>
+    <t>10.10.10.11/28</t>
   </si>
 </sst>
 </file>
@@ -319,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +429,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -688,37 +767,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -820,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -850,35 +898,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,22 +915,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -933,6 +946,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1246,7 +1341,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1267,21 +1362,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="E3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="I3" s="34" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="I3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1602,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,10 +1707,10 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1623,48 +1718,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="F1" s="36" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
+      <c r="F1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
+      <c r="K1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="42" t="s">
         <v>65</v>
       </c>
       <c r="K2" s="29" t="s">
@@ -1681,393 +1776,634 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="34" t="s">
         <v>38</v>
       </c>
+      <c r="F3" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="45" t="s">
         <v>45</v>
       </c>
+      <c r="F4" s="64"/>
+      <c r="G4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="34" t="s">
         <v>46</v>
       </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="59" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="48" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="34" t="s">
         <v>48</v>
       </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="48" t="s">
         <v>49</v>
       </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="34" t="s">
         <v>50</v>
       </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="47">
         <v>20</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="48" t="s">
         <v>68</v>
       </c>
+      <c r="F10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="64"/>
+      <c r="B11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="36">
         <v>20</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="34" t="s">
         <v>68</v>
       </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="64"/>
+      <c r="B12" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="48" t="s">
         <v>64</v>
       </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="67">
+        <v>20</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="34" t="s">
         <v>64</v>
       </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="66">
+        <v>20</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="47">
         <v>20</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="67">
+        <v>20</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="36">
         <v>20</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="34" t="s">
         <v>68</v>
       </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="69">
+        <v>20</v>
+      </c>
+      <c r="I15" s="73" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="47">
         <v>40</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="67">
+        <v>10</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="36">
+        <v>50</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="66">
+        <v>10</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="47">
+        <v>20</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="67">
+        <v>20</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="36">
+        <v>30</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="66">
+        <v>20</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="47">
+        <v>50</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="67">
+        <v>20</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="64"/>
+      <c r="B21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="78">
+        <v>30</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="81" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="47">
+        <v>50</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="36">
+        <v>50</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="46">
-        <v>50</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="47">
+        <v>40</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G24" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H24" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I24" s="90" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="60">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="36">
         <v>20</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="46">
+      <c r="D25" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="47">
+        <v>20</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="36">
+        <v>20</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="47">
+        <v>20</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="36">
         <v>30</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="60">
-        <v>50</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="60">
-        <v>50</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="46">
-        <v>50</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="s">
+      <c r="D29" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="60">
-        <v>40</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="46">
+      <c r="C30" s="51">
         <v>20</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="60">
-        <v>20</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="46">
-        <v>20</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="D30" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="60">
-        <v>20</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="46">
-        <v>30</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="64">
-        <v>20</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A21"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F10:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D3ED-60ED-4C23-A389-C9C865BC5EAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linux-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E12D5-1CC2-4EB4-AE2C-5202F3D84041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933F6DF-4F51-4C61-8E95-3576BC81B178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="IP" sheetId="1" r:id="rId1"/>
-    <sheet name="Devices" sheetId="2" r:id="rId2"/>
-    <sheet name="Munka1" sheetId="3" r:id="rId3"/>
+    <sheet name="VLANs" sheetId="1" r:id="rId1"/>
+    <sheet name="DeviceIP" sheetId="2" r:id="rId2"/>
+    <sheet name="Device$" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -45,9 +45,6 @@
     <t>hál. Cím /24</t>
   </si>
   <si>
-    <t>hál. Cím /29</t>
-  </si>
-  <si>
     <t>vendég</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>192.168.30.0</t>
   </si>
   <si>
-    <t>172.16.30.0</t>
-  </si>
-  <si>
     <t>dead</t>
   </si>
   <si>
@@ -352,6 +346,69 @@
   </si>
   <si>
     <t>10.10.10.11/28</t>
+  </si>
+  <si>
+    <t>Sw_factory</t>
+  </si>
+  <si>
+    <t>R_factory</t>
+  </si>
+  <si>
+    <t>F_printer</t>
+  </si>
+  <si>
+    <t>Factory_pc1</t>
+  </si>
+  <si>
+    <t>Factory_pc2</t>
+  </si>
+  <si>
+    <t>Factory_pc3</t>
+  </si>
+  <si>
+    <t>Factory_pc4</t>
+  </si>
+  <si>
+    <t>Factory_pc5</t>
+  </si>
+  <si>
+    <t>Factory_pc6</t>
+  </si>
+  <si>
+    <t>Factory_pc7</t>
+  </si>
+  <si>
+    <t>Factory_pc8</t>
+  </si>
+  <si>
+    <t>Fa0/8</t>
+  </si>
+  <si>
+    <t>172.16.40.0</t>
+  </si>
+  <si>
+    <t>hál. Cím /28</t>
+  </si>
+  <si>
+    <t>G1/0.20</t>
+  </si>
+  <si>
+    <t>G1/0.40</t>
+  </si>
+  <si>
+    <t>G1/0.10</t>
+  </si>
+  <si>
+    <t>172.16.10.1</t>
+  </si>
+  <si>
+    <t>172.16.20.1</t>
+  </si>
+  <si>
+    <t>172.16.40.1</t>
+  </si>
+  <si>
+    <t>172.16.20.254</t>
   </si>
 </sst>
 </file>
@@ -442,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -772,103 +829,157 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -899,8 +1010,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,13 +1024,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -946,35 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,14 +1073,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1019,14 +1088,95 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,7 +1491,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1362,21 +1512,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="E3" s="57" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="E3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="I3" s="57" t="s">
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="I3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1403,8 +1553,8 @@
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
+      <c r="K4" s="83" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,28 +1562,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1441,28 +1591,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="I6" s="4">
         <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1470,28 +1620,28 @@
         <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="4">
         <v>90</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1499,28 +1649,28 @@
         <v>40</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="10">
         <v>90</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I8" s="27">
         <v>101</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1528,19 +1678,19 @@
         <v>50</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4">
         <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
@@ -1551,10 +1701,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -1568,10 +1718,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -1697,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,681 +1868,943 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="F1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
-      <c r="F1" s="80" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="K1" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="42">
+        <v>10</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="42">
+        <v>10</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="102"/>
+      <c r="L4" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="66">
+        <v>10</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="31">
+        <v>20</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="31">
+        <v>20</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="102"/>
+      <c r="L5" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="54">
+        <v>20</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="45">
+        <v>30</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="45">
+        <v>30</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="103"/>
+      <c r="L6" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="53">
+        <v>40</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="31">
+        <v>40</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="31">
+        <v>40</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="45">
+        <v>50</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="81"/>
+      <c r="G8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="45">
+        <v>50</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="104"/>
+      <c r="L8" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="100">
+        <v>20</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="31">
+        <v>60</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="31">
+        <v>60</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="104"/>
+      <c r="L9" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="90">
+        <v>20</v>
+      </c>
+      <c r="N9" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="45">
+        <v>20</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="104"/>
+      <c r="L10" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="100">
+        <v>20</v>
+      </c>
+      <c r="N10" s="105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34">
+        <v>20</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="104"/>
+      <c r="L11" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="90">
+        <v>20</v>
+      </c>
+      <c r="N11" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="54">
+        <v>20</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="104"/>
+      <c r="L12" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="100">
+        <v>20</v>
+      </c>
+      <c r="N12" s="105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="53">
+        <v>20</v>
+      </c>
+      <c r="I13" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="104"/>
+      <c r="L13" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="90">
+        <v>20</v>
+      </c>
+      <c r="N13" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="45">
+        <v>20</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="81"/>
+      <c r="G14" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="54">
+        <v>20</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="104"/>
+      <c r="L14" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="100">
+        <v>20</v>
+      </c>
+      <c r="N14" s="105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="34">
+        <v>20</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="56">
+        <v>20</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="104"/>
+      <c r="L15" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="90">
+        <v>20</v>
+      </c>
+      <c r="N15" s="99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="45">
+        <v>40</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="104"/>
+      <c r="L16" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="100">
+        <v>20</v>
+      </c>
+      <c r="N16" s="105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34">
+        <v>50</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="56">
+        <v>10</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="54">
+        <v>20</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="45">
+        <v>20</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="54">
+        <v>10</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="56">
+        <v>20</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="34">
+        <v>30</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="56">
+        <v>20</v>
+      </c>
+      <c r="I19" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="54">
+        <v>20</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="45">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="54">
+        <v>20</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="56">
+        <v>20</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="56">
+        <v>20</v>
+      </c>
+      <c r="I21" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="54">
+        <v>20</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="45">
+        <v>50</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="91">
+        <v>30</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="56">
+        <v>20</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="34">
+        <v>50</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="54">
+        <v>20</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="45">
+        <v>40</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="56">
+        <v>20</v>
+      </c>
+      <c r="N24" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="34">
+        <v>20</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="91">
+        <v>20</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="45">
+        <v>20</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="34">
+        <v>20</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
-      <c r="K1" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="45">
+        <v>20</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="42" t="s">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="34">
+        <v>30</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="42" t="s">
+      <c r="I29" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="49">
+        <v>20</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="47">
-        <v>20</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="36">
-        <v>20</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="67">
-        <v>20</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="66">
-        <v>20</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="47">
-        <v>20</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="67">
-        <v>20</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="36">
-        <v>20</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="69">
-        <v>20</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="47">
-        <v>40</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="67">
-        <v>10</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="36">
-        <v>50</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="66">
-        <v>10</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="47">
-        <v>20</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="67">
-        <v>20</v>
-      </c>
-      <c r="I18" s="74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="36">
-        <v>30</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="66">
-        <v>20</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="47">
-        <v>50</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="67">
-        <v>20</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="78">
-        <v>30</v>
-      </c>
-      <c r="I21" s="79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="47">
-        <v>50</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="36">
-        <v>50</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="47">
-        <v>40</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="36">
-        <v>20</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="47">
-        <v>20</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="87" t="s">
+      <c r="I30" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="36">
-        <v>20</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="47">
-        <v>20</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="36">
-        <v>30</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="51">
-        <v>20</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A21"/>
     <mergeCell ref="F3:F9"/>
-    <mergeCell ref="F10:F16"/>
+    <mergeCell ref="K7:K16"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="K3:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933F6DF-4F51-4C61-8E95-3576BC81B178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304C2E8-D3C6-41FA-819E-B035492FBABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,16 +399,16 @@
     <t>G1/0.10</t>
   </si>
   <si>
-    <t>172.16.10.1</t>
-  </si>
-  <si>
-    <t>172.16.20.1</t>
-  </si>
-  <si>
-    <t>172.16.40.1</t>
-  </si>
-  <si>
-    <t>172.16.20.254</t>
+    <t>172.16.10.1/24</t>
+  </si>
+  <si>
+    <t>172.16.20.1/24</t>
+  </si>
+  <si>
+    <t>172.16.40.1/24</t>
+  </si>
+  <si>
+    <t>172.16.20.254/24</t>
   </si>
 </sst>
 </file>
@@ -1097,43 +1097,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,6 +1131,44 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,12 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,21 +1512,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="E3" s="75" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="E3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="I3" s="75" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="I3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -1553,7 +1553,7 @@
       <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="83" t="s">
+      <c r="K4" s="74" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,36 +1856,36 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
-      <c r="F1" s="87" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="99"/>
+      <c r="F1" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="K1" s="87" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="96"/>
+      <c r="K1" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -1900,33 +1900,33 @@
       <c r="D2" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="77" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="101" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -1938,7 +1938,7 @@
       <c r="D3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="101" t="s">
         <v>83</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -1950,19 +1950,19 @@
       <c r="I3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="103" t="s">
         <v>109</v>
       </c>
       <c r="L3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="78" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="46"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="41" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="D4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="81"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="41" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="I4" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="102"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="62" t="s">
         <v>124</v>
       </c>
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="30" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="D5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="81"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="30" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="I5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="102"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="58" t="s">
         <v>122</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="44" t="s">
         <v>39</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="81"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="44" t="s">
         <v>39</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="I6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="103"/>
+      <c r="K6" s="105"/>
       <c r="L6" s="62" t="s">
         <v>123</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="D7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="81"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="30" t="s">
         <v>40</v>
       </c>
@@ -2079,13 +2079,13 @@
       <c r="I7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="104" t="s">
+      <c r="K7" s="102" t="s">
         <v>108</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="78" t="s">
         <v>65</v>
       </c>
       <c r="N7" s="60" t="s">
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="44" t="s">
         <v>41</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="D8" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="44" t="s">
         <v>41</v>
       </c>
@@ -2113,19 +2113,19 @@
       <c r="I8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="92" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="100">
-        <v>20</v>
-      </c>
-      <c r="N8" s="105" t="s">
+      <c r="M8" s="88">
+        <v>20</v>
+      </c>
+      <c r="N8" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="30" t="s">
         <v>42</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="D9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="30" t="s">
         <v>42</v>
       </c>
@@ -2145,19 +2145,19 @@
       <c r="I9" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="104"/>
+      <c r="K9" s="102"/>
       <c r="L9" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="90">
-        <v>20</v>
-      </c>
-      <c r="N9" s="99" t="s">
+      <c r="M9" s="78">
+        <v>20</v>
+      </c>
+      <c r="N9" s="87" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="101" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2169,7 +2169,7 @@
       <c r="D10" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="101" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -2181,19 +2181,19 @@
       <c r="I10" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="92" t="s">
+      <c r="K10" s="102"/>
+      <c r="L10" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="100">
-        <v>20</v>
-      </c>
-      <c r="N10" s="105" t="s">
+      <c r="M10" s="88">
+        <v>20</v>
+      </c>
+      <c r="N10" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="33" t="s">
         <v>51</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="D11" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="33" t="s">
         <v>51</v>
       </c>
@@ -2213,19 +2213,19 @@
       <c r="I11" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="104"/>
+      <c r="K11" s="102"/>
       <c r="L11" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="90">
-        <v>20</v>
-      </c>
-      <c r="N11" s="99" t="s">
+      <c r="M11" s="78">
+        <v>20</v>
+      </c>
+      <c r="N11" s="87" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="44" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="D12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="44" t="s">
         <v>52</v>
       </c>
@@ -2245,19 +2245,19 @@
       <c r="I12" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="104"/>
-      <c r="L12" s="92" t="s">
+      <c r="K12" s="102"/>
+      <c r="L12" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="100">
-        <v>20</v>
-      </c>
-      <c r="N12" s="105" t="s">
+      <c r="M12" s="88">
+        <v>20</v>
+      </c>
+      <c r="N12" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="33" t="s">
         <v>53</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="D13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="33" t="s">
         <v>53</v>
       </c>
@@ -2277,19 +2277,19 @@
       <c r="I13" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="102"/>
       <c r="L13" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="90">
-        <v>20</v>
-      </c>
-      <c r="N13" s="99" t="s">
+      <c r="M13" s="78">
+        <v>20</v>
+      </c>
+      <c r="N13" s="87" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="44" t="s">
         <v>54</v>
       </c>
@@ -2299,7 +2299,7 @@
       <c r="D14" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="81"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="44" t="s">
         <v>54</v>
       </c>
@@ -2309,19 +2309,19 @@
       <c r="I14" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="92" t="s">
+      <c r="K14" s="102"/>
+      <c r="L14" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="100">
-        <v>20</v>
-      </c>
-      <c r="N14" s="105" t="s">
+      <c r="M14" s="88">
+        <v>20</v>
+      </c>
+      <c r="N14" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="33" t="s">
         <v>55</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="D15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="55" t="s">
         <v>55</v>
       </c>
@@ -2341,19 +2341,19 @@
       <c r="I15" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="M15" s="90">
-        <v>20</v>
-      </c>
-      <c r="N15" s="99" t="s">
+      <c r="M15" s="78">
+        <v>20</v>
+      </c>
+      <c r="N15" s="87" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="44" t="s">
         <v>56</v>
       </c>
@@ -2363,29 +2363,29 @@
       <c r="D16" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="78" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="104"/>
-      <c r="L16" s="92" t="s">
+      <c r="K16" s="102"/>
+      <c r="L16" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="100">
-        <v>20</v>
-      </c>
-      <c r="N16" s="105" t="s">
+      <c r="M16" s="88">
+        <v>20</v>
+      </c>
+      <c r="N16" s="89" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="33" t="s">
         <v>57</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="D17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="81"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="55" t="s">
         <v>60</v>
       </c>
@@ -2419,7 +2419,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="44" t="s">
         <v>58</v>
       </c>
@@ -2441,10 +2441,10 @@
       <c r="I18" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="80" t="s">
         <v>76</v>
       </c>
       <c r="M18" s="56">
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="33" t="s">
         <v>59</v>
       </c>
@@ -2465,16 +2465,16 @@
       <c r="D19" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="80" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="56">
         <v>20</v>
       </c>
-      <c r="I19" s="93" t="s">
+      <c r="I19" s="81" t="s">
         <v>82</v>
       </c>
       <c r="K19" s="52" t="s">
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="44" t="s">
         <v>73</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="I20" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="82" t="s">
+      <c r="K20" s="73" t="s">
         <v>113</v>
       </c>
       <c r="L20" s="55" t="s">
@@ -2527,7 +2527,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="33" t="s">
         <v>60</v>
       </c>
@@ -2537,16 +2537,16 @@
       <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="80" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="56">
         <v>20</v>
       </c>
-      <c r="I21" s="93" t="s">
+      <c r="I21" s="81" t="s">
         <v>82</v>
       </c>
       <c r="K21" s="52" t="s">
@@ -2575,19 +2575,19 @@
       <c r="D22" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="83" t="s">
         <v>101</v>
       </c>
       <c r="G22" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="79">
         <v>30</v>
       </c>
       <c r="I22" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="82" t="s">
+      <c r="K22" s="73" t="s">
         <v>115</v>
       </c>
       <c r="L22" s="55" t="s">
@@ -2639,10 +2639,10 @@
       <c r="D24" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="82" t="s">
+      <c r="K24" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="92" t="s">
+      <c r="L24" s="80" t="s">
         <v>76</v>
       </c>
       <c r="M24" s="56">
@@ -2671,7 +2671,7 @@
       <c r="L25" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="M25" s="91">
+      <c r="M25" s="79">
         <v>20</v>
       </c>
       <c r="N25" s="65" t="s">
@@ -2705,12 +2705,12 @@
       <c r="D27" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3041TAN-13\Documents\GitHub\mesterremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5304C2E8-D3C6-41FA-819E-B035492FBABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4718A-73A8-4C55-83E8-E69E655AB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,16 @@
     <sheet name="Device$" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -409,6 +414,21 @@
   </si>
   <si>
     <t>172.16.20.254/24</t>
+  </si>
+  <si>
+    <t>Device type</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>Link to web</t>
+  </si>
+  <si>
+    <t>Price per piece</t>
   </si>
 </sst>
 </file>
@@ -499,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -975,11 +995,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1178,6 +1235,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1482,7 +1542,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
@@ -1847,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -2810,12 +2869,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D3ED-60ED-4C23-A389-C9C865BC5EAB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3041TAN-13\Documents\GitHub\mesterremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3401TAN-03\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE4718A-73A8-4C55-83E8-E69E655AB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2953C0-A973-469A-9B91-9418AFD2EF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
     <sheet name="DeviceIP" sheetId="2" r:id="rId2"/>
     <sheet name="Device$" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -137,9 +137,6 @@
     <t>G0/0</t>
   </si>
   <si>
-    <t>100.10.0.5/24</t>
-  </si>
-  <si>
     <t>G2/0.10</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>R_backup</t>
   </si>
   <si>
-    <t>42.234.4.10/30</t>
-  </si>
-  <si>
     <t>192.168.10.2/24</t>
   </si>
   <si>
@@ -429,13 +423,79 @@
   </si>
   <si>
     <t>Price per piece</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Cisco C9200L-24T-4G-E</t>
+  </si>
+  <si>
+    <t>Katt ide!</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router Cisco 1921/K9</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>HP LaserJet Pro 4102dw</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t>Hard Drive</t>
+  </si>
+  <si>
+    <t>Server DELL R650 10SFF</t>
+  </si>
+  <si>
+    <t>Seagate Exos Nearline Enterprise Hard Drive 8TB</t>
+  </si>
+  <si>
+    <t>DELL EMC PowerEdge R640 (10xSFF)</t>
+  </si>
+  <si>
+    <t>Dell OptiPlex 3070 SFF + Monitor Lenovo ThinkVision T24i-10 23,8"</t>
+  </si>
+  <si>
+    <t>MIKROTIK - RB4011iGS+5HacQ2HnD-IN</t>
+  </si>
+  <si>
+    <t>WiFi Router</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>UNV CAB-LC3110B-E-IN (305 méter)</t>
+  </si>
+  <si>
+    <t>50M/165FT OM3/OM4 LC to LC Outdoor Armored Fiber Optic Patch Cable</t>
+  </si>
+  <si>
+    <t>In total:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -462,8 +522,23 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +593,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -996,10 +1077,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1009,34 +1105,99 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1235,11 +1396,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1613,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1691,7 +1923,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="4">
         <v>90</v>
@@ -1907,7 +2139,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,37 +2183,37 @@
         <v>30</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="75" t="s">
         <v>30</v>
       </c>
       <c r="L2" s="76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1991,778 +2223,774 @@
       <c r="B3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>36</v>
+      <c r="C3" s="31"/>
+      <c r="D3" s="61" t="s">
+        <v>141</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>84</v>
+      <c r="H3" s="53"/>
+      <c r="I3" s="61" t="s">
+        <v>141</v>
       </c>
       <c r="K3" s="103" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="46"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="60" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="101"/>
       <c r="B4" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="42">
         <v>10</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="101"/>
       <c r="G4" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="42">
         <v>10</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="104"/>
       <c r="L4" s="62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="66">
         <v>10</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="31">
         <v>20</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="101"/>
       <c r="G5" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="31">
         <v>20</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="104"/>
       <c r="L5" s="58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M5" s="54">
         <v>20</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="101"/>
       <c r="B6" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="45">
         <v>30</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="101"/>
       <c r="G6" s="44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="45">
         <v>30</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K6" s="105"/>
       <c r="L6" s="62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M6" s="53">
         <v>40</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="31">
         <v>40</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="101"/>
       <c r="G7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="31">
         <v>40</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K7" s="102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L7" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="101"/>
       <c r="B8" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="45">
         <v>50</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="45">
         <v>50</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="102"/>
       <c r="L8" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="88">
         <v>20</v>
       </c>
       <c r="N8" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="101"/>
       <c r="B9" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="31">
         <v>60</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="101"/>
       <c r="G9" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="31">
         <v>60</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="102"/>
       <c r="L9" s="58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="78">
         <v>20</v>
       </c>
       <c r="N9" s="87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>50</v>
-      </c>
       <c r="C10" s="45">
         <v>20</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10" s="102"/>
       <c r="L10" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="88">
         <v>20</v>
       </c>
       <c r="N10" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="101"/>
       <c r="B11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="34">
         <v>20</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="101"/>
       <c r="G11" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11" s="102"/>
       <c r="L11" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="78">
         <v>20</v>
       </c>
       <c r="N11" s="87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="101"/>
       <c r="B12" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="54">
         <v>20</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="102"/>
       <c r="L12" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="88">
         <v>20</v>
       </c>
       <c r="N12" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
       <c r="B13" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="101"/>
       <c r="G13" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="53">
         <v>20</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="102"/>
       <c r="L13" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13" s="78">
         <v>20</v>
       </c>
       <c r="N13" s="87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="101"/>
       <c r="B14" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="45">
         <v>20</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="101"/>
       <c r="G14" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="54">
         <v>20</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="102"/>
       <c r="L14" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="88">
         <v>20</v>
       </c>
       <c r="N14" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="101"/>
       <c r="B15" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="34">
         <v>20</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="101"/>
       <c r="G15" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="56">
         <v>20</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="102"/>
       <c r="L15" s="58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M15" s="78">
         <v>20</v>
       </c>
       <c r="N15" s="87" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="101"/>
       <c r="B16" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="45">
         <v>40</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="101"/>
       <c r="G16" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="102"/>
       <c r="L16" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="88">
         <v>20</v>
       </c>
       <c r="N16" s="89" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
       <c r="B17" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="34">
         <v>50</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="101"/>
       <c r="G17" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="56">
         <v>10</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M17" s="54">
         <v>20</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
       <c r="B18" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="45">
         <v>20</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H18" s="54">
         <v>10</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="56">
         <v>20</v>
       </c>
       <c r="N18" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
       <c r="B19" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="34">
         <v>30</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="56">
         <v>20</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="54">
         <v>20</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
       <c r="B20" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="45">
         <v>50</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="54">
         <v>20</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M20" s="56">
         <v>20</v>
       </c>
       <c r="N20" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
       <c r="B21" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="56">
         <v>20</v>
       </c>
       <c r="I21" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M21" s="54">
         <v>20</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="45">
         <v>50</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="79">
         <v>30</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K22" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M22" s="56">
         <v>20</v>
       </c>
       <c r="N22" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="34">
         <v>50</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K23" s="52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L23" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" s="54">
         <v>20</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>76</v>
       </c>
       <c r="C24" s="45">
         <v>40</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L24" s="80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M24" s="56">
         <v>20</v>
       </c>
       <c r="N24" s="59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="34">
         <v>20</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M25" s="79">
         <v>20</v>
       </c>
       <c r="N25" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="45">
         <v>20</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="34">
         <v>20</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="97" t="s">
         <v>33</v>
@@ -2773,80 +3001,80 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="45">
         <v>20</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="70" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="34">
         <v>30</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="49">
         <v>20</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="65" t="s">
         <v>105</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2869,43 +3097,558 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D3ED-60ED-4C23-A389-C9C865BC5EAB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="F1" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="107" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="107" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="108" t="s">
+      <c r="C2" s="113">
+        <v>3</v>
+      </c>
+      <c r="D2" s="114">
+        <v>384000</v>
+      </c>
+      <c r="E2" s="114">
+        <f>C2*D2</f>
+        <v>1152000</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="118">
+        <v>3</v>
+      </c>
+      <c r="D3" s="119">
+        <v>162000</v>
+      </c>
+      <c r="E3" s="119">
+        <f>C3*D3</f>
+        <v>486000</v>
+      </c>
+      <c r="F3" s="124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="109">
+        <v>3</v>
+      </c>
+      <c r="D4" s="110">
+        <v>160340</v>
+      </c>
+      <c r="E4" s="110">
+        <f>C4*D4</f>
+        <v>481020</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="118">
+        <v>1</v>
+      </c>
+      <c r="D5" s="119">
+        <v>3656000</v>
+      </c>
+      <c r="E5" s="119">
+        <f t="shared" ref="E5:E11" si="0">C5*D5</f>
+        <v>3656000</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="109">
+        <v>6</v>
+      </c>
+      <c r="D6" s="110">
+        <v>140335</v>
+      </c>
+      <c r="E6" s="110">
+        <f t="shared" si="0"/>
+        <v>842010</v>
+      </c>
+      <c r="F6" s="125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="118">
+        <v>1</v>
+      </c>
+      <c r="D7" s="119">
+        <v>364000</v>
+      </c>
+      <c r="E7" s="119">
+        <f t="shared" si="0"/>
+        <v>364000</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="66" t="s">
         <v>132</v>
       </c>
+      <c r="C8" s="109">
+        <v>16</v>
+      </c>
+      <c r="D8" s="110">
+        <v>127790</v>
+      </c>
+      <c r="E8" s="110">
+        <f t="shared" si="0"/>
+        <v>2044640</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="118">
+        <v>1</v>
+      </c>
+      <c r="D9" s="119">
+        <v>96620</v>
+      </c>
+      <c r="E9" s="119">
+        <f t="shared" si="0"/>
+        <v>96620</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="109">
+        <v>1</v>
+      </c>
+      <c r="D10" s="110">
+        <v>94349</v>
+      </c>
+      <c r="E10" s="110">
+        <f t="shared" si="0"/>
+        <v>94349</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="121">
+        <v>2</v>
+      </c>
+      <c r="D11" s="122">
+        <v>24500</v>
+      </c>
+      <c r="E11" s="122">
+        <f t="shared" si="0"/>
+        <v>49000</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129">
+        <f>SUM(C2:C11)</f>
+        <v>37</v>
+      </c>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130">
+        <f>SUM(E2:E11)</f>
+        <v>9265639</v>
+      </c>
+      <c r="F12" s="131"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="107"/>
+      <c r="F13" s="106"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="107"/>
+      <c r="F14" s="106"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="107"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="107"/>
+      <c r="F16" s="106"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="106"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="107"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="107"/>
+      <c r="F18" s="106"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="106"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="107"/>
+      <c r="F19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="107"/>
+      <c r="F20" s="106"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="106"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="107"/>
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="107"/>
+      <c r="F22" s="106"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="107"/>
+      <c r="F23" s="106"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="106"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="107"/>
+      <c r="F24" s="106"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="107"/>
+      <c r="F25" s="106"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="106"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="107"/>
+      <c r="F26" s="106"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="106"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="107"/>
+      <c r="F27" s="106"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="106"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="107"/>
+      <c r="F28" s="106"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="106"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="107"/>
+      <c r="F29" s="106"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="106"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="107"/>
+      <c r="F30" s="106"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="107"/>
+      <c r="F31" s="106"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="106"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="107"/>
+      <c r="F32" s="106"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="107"/>
+      <c r="F33" s="106"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="F34" s="106"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="F35" s="106"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="F36" s="106"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="F37" s="106"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="F38" s="106"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="106"/>
+      <c r="C42" s="106"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="106"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="106"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="106"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="106"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="106"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="106"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="106"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="106"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{8B129FBF-EDD7-4F70-949C-FAB450B7AAD9}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{316ED962-5DB2-40B7-87EF-B05B86006E31}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{5792110C-3CBC-45C8-B0D8-628A2CC95FFC}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{81940EA3-6D35-49A3-B0D3-C348933D5C84}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{F2FEB2F9-55A5-48B5-979A-5B4524E4E543}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{BA2FE393-53D2-44C3-AC32-6439FC542DA6}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{09B0A119-F501-465E-9AEE-119BF0243B26}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{D368B86E-7C5E-445D-A520-0C2308F8C9B2}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{E93D896A-69D5-4F53-AC17-DFCDF2246812}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{5C4EE946-792F-439C-8708-FE609DAF0C2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3401TAN-03\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2953C0-A973-469A-9B91-9418AFD2EF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576C86F-5D29-4D12-954F-BF6DD9CD6969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,8 +492,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1197,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1352,50 +1353,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1469,6 +1426,55 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1803,21 +1809,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="E3" s="92" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="E3" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="I3" s="92" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="I3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2159,24 +2165,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="99"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="F1" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="96"/>
-      <c r="K1" s="94" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="K1" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -2217,7 +2223,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="130" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2227,7 +2233,7 @@
       <c r="D3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="130" t="s">
         <v>82</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -2237,7 +2243,7 @@
       <c r="I3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="132" t="s">
         <v>107</v>
       </c>
       <c r="L3" s="58" t="s">
@@ -2249,7 +2255,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="41" t="s">
         <v>36</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="D4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="101"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="41" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2275,7 @@
       <c r="I4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="104"/>
+      <c r="K4" s="133"/>
       <c r="L4" s="62" t="s">
         <v>122</v>
       </c>
@@ -2281,7 +2287,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2291,7 +2297,7 @@
       <c r="D5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2301,7 +2307,7 @@
       <c r="I5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="104"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="58" t="s">
         <v>120</v>
       </c>
@@ -2313,7 +2319,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="44" t="s">
         <v>38</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="101"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="44" t="s">
         <v>38</v>
       </c>
@@ -2334,7 +2340,7 @@
       <c r="I6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="105"/>
+      <c r="K6" s="134"/>
       <c r="L6" s="62" t="s">
         <v>121</v>
       </c>
@@ -2346,7 +2352,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="30" t="s">
         <v>39</v>
       </c>
@@ -2356,7 +2362,7 @@
       <c r="D7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="30" t="s">
         <v>39</v>
       </c>
@@ -2366,7 +2372,7 @@
       <c r="I7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="131" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="58" t="s">
@@ -2380,7 +2386,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="44" t="s">
         <v>40</v>
       </c>
@@ -2390,7 +2396,7 @@
       <c r="D8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="44" t="s">
         <v>40</v>
       </c>
@@ -2400,7 +2406,7 @@
       <c r="I8" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="102"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="80" t="s">
         <v>49</v>
       </c>
@@ -2412,7 +2418,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
@@ -2422,7 +2428,7 @@
       <c r="D9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="30" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2438,7 @@
       <c r="I9" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="102"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="58" t="s">
         <v>50</v>
       </c>
@@ -2444,7 +2450,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="130" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2456,7 +2462,7 @@
       <c r="D10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="130" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -2468,7 +2474,7 @@
       <c r="I10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="102"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="80" t="s">
         <v>51</v>
       </c>
@@ -2480,7 +2486,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
@@ -2490,7 +2496,7 @@
       <c r="D11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="33" t="s">
         <v>50</v>
       </c>
@@ -2500,7 +2506,7 @@
       <c r="I11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="102"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="58" t="s">
         <v>52</v>
       </c>
@@ -2512,7 +2518,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="44" t="s">
         <v>51</v>
       </c>
@@ -2522,7 +2528,7 @@
       <c r="D12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="101"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="44" t="s">
         <v>51</v>
       </c>
@@ -2532,7 +2538,7 @@
       <c r="I12" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="102"/>
+      <c r="K12" s="131"/>
       <c r="L12" s="80" t="s">
         <v>53</v>
       </c>
@@ -2544,7 +2550,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2554,7 +2560,7 @@
       <c r="D13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2570,7 @@
       <c r="I13" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="102"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="58" t="s">
         <v>54</v>
       </c>
@@ -2576,7 +2582,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="44" t="s">
         <v>53</v>
       </c>
@@ -2586,7 +2592,7 @@
       <c r="D14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="101"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="44" t="s">
         <v>53</v>
       </c>
@@ -2596,7 +2602,7 @@
       <c r="I14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="102"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="80" t="s">
         <v>55</v>
       </c>
@@ -2608,7 +2614,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="33" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2624,7 @@
       <c r="D15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="55" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2634,7 @@
       <c r="I15" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="102"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="58" t="s">
         <v>117</v>
       </c>
@@ -2640,7 +2646,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="44" t="s">
         <v>55</v>
       </c>
@@ -2650,7 +2656,7 @@
       <c r="D16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="101"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="58" t="s">
         <v>55</v>
       </c>
@@ -2660,7 +2666,7 @@
       <c r="I16" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="102"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="80" t="s">
         <v>56</v>
       </c>
@@ -2672,7 +2678,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="33" t="s">
         <v>56</v>
       </c>
@@ -2682,7 +2688,7 @@
       <c r="D17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="101"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="55" t="s">
         <v>59</v>
       </c>
@@ -2706,7 +2712,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="44" t="s">
         <v>57</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
@@ -2778,7 +2784,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="44" t="s">
         <v>72</v>
       </c>
@@ -2814,7 +2820,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -2992,12 +2998,12 @@
       <c r="D27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="97" t="s">
+      <c r="F27" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="99"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="128"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -3100,7 +3106,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,69 +3114,70 @@
     <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="116" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="133" t="s">
+      <c r="F1" s="117" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="97">
         <v>3</v>
       </c>
-      <c r="D2" s="114">
+      <c r="D2" s="98">
         <v>384000</v>
       </c>
-      <c r="E2" s="114">
+      <c r="E2" s="135">
         <f>C2*D2</f>
         <v>1152000</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="107" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="102">
         <v>3</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="103">
         <v>162000</v>
       </c>
-      <c r="E3" s="119">
+      <c r="E3" s="136">
         <f>C3*D3</f>
         <v>486000</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="108" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3181,38 +3188,38 @@
       <c r="B4" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="93">
         <v>3</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="94">
         <v>160340</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="137">
         <f>C4*D4</f>
         <v>481020</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="102">
         <v>1</v>
       </c>
-      <c r="D5" s="119">
+      <c r="D5" s="103">
         <v>3656000</v>
       </c>
-      <c r="E5" s="119">
+      <c r="E5" s="136">
         <f t="shared" ref="E5:E11" si="0">C5*D5</f>
         <v>3656000</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="108" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3223,38 +3230,38 @@
       <c r="B6" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="93">
         <v>6</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="94">
         <v>140335</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="137">
         <f t="shared" si="0"/>
         <v>842010</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="102">
         <v>1</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="103">
         <v>364000</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="136">
         <f t="shared" si="0"/>
         <v>364000</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="108" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3265,38 +3272,38 @@
       <c r="B8" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="93">
         <v>16</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="94">
         <v>127790</v>
       </c>
-      <c r="E8" s="110">
+      <c r="E8" s="137">
         <f t="shared" si="0"/>
         <v>2044640</v>
       </c>
-      <c r="F8" s="125" t="s">
+      <c r="F8" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="102">
         <v>1</v>
       </c>
-      <c r="D9" s="119">
+      <c r="D9" s="103">
         <v>96620</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="136">
         <f t="shared" si="0"/>
         <v>96620</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="108" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3307,333 +3314,333 @@
       <c r="B10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="93">
         <v>1</v>
       </c>
-      <c r="D10" s="110">
+      <c r="D10" s="94">
         <v>94349</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="137">
         <f t="shared" si="0"/>
         <v>94349</v>
       </c>
-      <c r="F10" s="125" t="s">
+      <c r="F10" s="109" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="121">
+      <c r="C11" s="105">
         <v>2</v>
       </c>
-      <c r="D11" s="122">
+      <c r="D11" s="106">
         <v>24500</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="138">
         <f t="shared" si="0"/>
         <v>49000</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="110" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129">
+      <c r="B12" s="112"/>
+      <c r="C12" s="113">
         <f>SUM(C2:C11)</f>
         <v>37</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130">
+      <c r="D12" s="114"/>
+      <c r="E12" s="139">
         <f>SUM(E2:E11)</f>
         <v>9265639</v>
       </c>
-      <c r="F12" s="131"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="107"/>
-      <c r="F13" s="106"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="91"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="107"/>
-      <c r="F14" s="106"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="91"/>
+      <c r="F14" s="90"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="107"/>
-      <c r="F15" s="106"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="91"/>
+      <c r="F15" s="90"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="107"/>
-      <c r="F16" s="106"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="91"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="107"/>
-      <c r="F17" s="106"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="91"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="107"/>
-      <c r="F18" s="106"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="91"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="107"/>
-      <c r="F19" s="106"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="91"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="107"/>
-      <c r="F20" s="106"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="91"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="107"/>
-      <c r="F21" s="106"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="91"/>
+      <c r="F21" s="90"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="107"/>
-      <c r="F22" s="106"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="91"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="107"/>
-      <c r="F23" s="106"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="91"/>
+      <c r="F23" s="90"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="107"/>
-      <c r="F24" s="106"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="91"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="107"/>
-      <c r="F25" s="106"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="91"/>
+      <c r="F25" s="90"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="107"/>
-      <c r="F26" s="106"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="91"/>
+      <c r="F26" s="90"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="107"/>
-      <c r="F27" s="106"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="91"/>
+      <c r="F27" s="90"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="107"/>
-      <c r="F28" s="106"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="91"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="107"/>
-      <c r="F29" s="106"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="91"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107"/>
-      <c r="F30" s="106"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="91"/>
+      <c r="F30" s="90"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="107"/>
-      <c r="F31" s="106"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="91"/>
+      <c r="F31" s="90"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="106"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="107"/>
-      <c r="F32" s="106"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="91"/>
+      <c r="F32" s="90"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="F33" s="106"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="F33" s="90"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="F34" s="106"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="F34" s="90"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="F35" s="106"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="F36" s="106"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="F37" s="106"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="F37" s="90"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="F38" s="106"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="106"/>
+      <c r="B60" s="90"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="106"/>
+      <c r="B61" s="90"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="106"/>
+      <c r="B62" s="90"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="106"/>
+      <c r="B63" s="90"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="106"/>
+      <c r="B64" s="90"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="106"/>
+      <c r="B65" s="90"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="106"/>
+      <c r="B66" s="90"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="106"/>
+      <c r="B67" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3401TAN-03\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576C86F-5D29-4D12-954F-BF6DD9CD6969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC8D81-4ED1-4AE9-8058-B70B0C2278E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
     <sheet name="DeviceIP" sheetId="2" r:id="rId2"/>
-    <sheet name="Device$" sheetId="3" r:id="rId3"/>
+    <sheet name="Router IPv6" sheetId="4" r:id="rId3"/>
+    <sheet name="Device$" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="172">
   <si>
     <t>ip cimzés</t>
   </si>
@@ -486,6 +487,63 @@
   </si>
   <si>
     <t>In total:</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>ipv6 address</t>
+  </si>
+  <si>
+    <t>Internet1</t>
+  </si>
+  <si>
+    <t>Gig0/0/0</t>
+  </si>
+  <si>
+    <t>2001:0db8::1:1/64</t>
+  </si>
+  <si>
+    <t>ISP</t>
+  </si>
+  <si>
+    <t>2001:0db8::1:2/64</t>
+  </si>
+  <si>
+    <t>Gig0/1/0</t>
+  </si>
+  <si>
+    <t>2001:0db8::2:1/64</t>
+  </si>
+  <si>
+    <t>Gig0/2/0</t>
+  </si>
+  <si>
+    <t>2001:0db8::3:1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8::2:2/64</t>
+  </si>
+  <si>
+    <t>Building network</t>
+  </si>
+  <si>
+    <t>2001:0db8::4:1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8::3:2/64</t>
+  </si>
+  <si>
+    <t>2001:0db8::5:1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8::4:2/64</t>
+  </si>
+  <si>
+    <t>Rbackup</t>
+  </si>
+  <si>
+    <t>2001:0db8::5:2/64</t>
   </si>
 </sst>
 </file>
@@ -494,7 +552,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -505,10 +563,14 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -528,6 +590,8 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +664,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1198,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1426,6 +1502,11 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1470,11 +1551,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1809,21 +1908,21 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="E3" s="121" t="s">
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="E3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="I3" s="121" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="I3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2165,24 +2264,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="F1" s="123" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="133"/>
+      <c r="F1" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125"/>
-      <c r="K1" s="123" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="K1" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="125"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -2223,7 +2322,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="135" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2233,7 +2332,7 @@
       <c r="D3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="135" t="s">
         <v>82</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -2243,7 +2342,7 @@
       <c r="I3" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="137" t="s">
         <v>107</v>
       </c>
       <c r="L3" s="58" t="s">
@@ -2255,7 +2354,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="41" t="s">
         <v>36</v>
       </c>
@@ -2265,7 +2364,7 @@
       <c r="D4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="130"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="41" t="s">
         <v>36</v>
       </c>
@@ -2275,7 +2374,7 @@
       <c r="I4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="133"/>
+      <c r="K4" s="138"/>
       <c r="L4" s="62" t="s">
         <v>122</v>
       </c>
@@ -2287,7 +2386,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2297,7 +2396,7 @@
       <c r="D5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="130"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="30" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2406,7 @@
       <c r="I5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="133"/>
+      <c r="K5" s="138"/>
       <c r="L5" s="58" t="s">
         <v>120</v>
       </c>
@@ -2319,7 +2418,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="44" t="s">
         <v>38</v>
       </c>
@@ -2330,7 +2429,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="130"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="44" t="s">
         <v>38</v>
       </c>
@@ -2340,7 +2439,7 @@
       <c r="I6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="134"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="62" t="s">
         <v>121</v>
       </c>
@@ -2352,7 +2451,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="30" t="s">
         <v>39</v>
       </c>
@@ -2362,7 +2461,7 @@
       <c r="D7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="130"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="30" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2471,7 @@
       <c r="I7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="131" t="s">
+      <c r="K7" s="136" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="58" t="s">
@@ -2386,7 +2485,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="44" t="s">
         <v>40</v>
       </c>
@@ -2396,7 +2495,7 @@
       <c r="D8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="135"/>
       <c r="G8" s="44" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2505,7 @@
       <c r="I8" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="131"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="80" t="s">
         <v>49</v>
       </c>
@@ -2418,7 +2517,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
@@ -2428,7 +2527,7 @@
       <c r="D9" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="130"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="30" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2537,7 @@
       <c r="I9" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="131"/>
+      <c r="K9" s="136"/>
       <c r="L9" s="58" t="s">
         <v>50</v>
       </c>
@@ -2450,7 +2549,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="135" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2462,7 +2561,7 @@
       <c r="D10" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="135" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -2474,7 +2573,7 @@
       <c r="I10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="131"/>
+      <c r="K10" s="136"/>
       <c r="L10" s="80" t="s">
         <v>51</v>
       </c>
@@ -2486,7 +2585,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="33" t="s">
         <v>50</v>
       </c>
@@ -2496,7 +2595,7 @@
       <c r="D11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="135"/>
       <c r="G11" s="33" t="s">
         <v>50</v>
       </c>
@@ -2506,7 +2605,7 @@
       <c r="I11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="131"/>
+      <c r="K11" s="136"/>
       <c r="L11" s="58" t="s">
         <v>52</v>
       </c>
@@ -2518,7 +2617,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="44" t="s">
         <v>51</v>
       </c>
@@ -2528,7 +2627,7 @@
       <c r="D12" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="130"/>
+      <c r="F12" s="135"/>
       <c r="G12" s="44" t="s">
         <v>51</v>
       </c>
@@ -2538,7 +2637,7 @@
       <c r="I12" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="131"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="80" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2649,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2560,7 +2659,7 @@
       <c r="D13" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="130"/>
+      <c r="F13" s="135"/>
       <c r="G13" s="33" t="s">
         <v>52</v>
       </c>
@@ -2570,7 +2669,7 @@
       <c r="I13" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="131"/>
+      <c r="K13" s="136"/>
       <c r="L13" s="58" t="s">
         <v>54</v>
       </c>
@@ -2582,7 +2681,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="44" t="s">
         <v>53</v>
       </c>
@@ -2592,7 +2691,7 @@
       <c r="D14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="130"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="44" t="s">
         <v>53</v>
       </c>
@@ -2602,7 +2701,7 @@
       <c r="I14" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="131"/>
+      <c r="K14" s="136"/>
       <c r="L14" s="80" t="s">
         <v>55</v>
       </c>
@@ -2614,7 +2713,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="33" t="s">
         <v>54</v>
       </c>
@@ -2624,7 +2723,7 @@
       <c r="D15" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="130"/>
+      <c r="F15" s="135"/>
       <c r="G15" s="55" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2733,7 @@
       <c r="I15" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="131"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="58" t="s">
         <v>117</v>
       </c>
@@ -2646,7 +2745,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="44" t="s">
         <v>55</v>
       </c>
@@ -2656,7 +2755,7 @@
       <c r="D16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="130"/>
+      <c r="F16" s="135"/>
       <c r="G16" s="58" t="s">
         <v>55</v>
       </c>
@@ -2666,7 +2765,7 @@
       <c r="I16" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="131"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="80" t="s">
         <v>56</v>
       </c>
@@ -2678,7 +2777,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="33" t="s">
         <v>56</v>
       </c>
@@ -2688,7 +2787,7 @@
       <c r="D17" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="130"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="55" t="s">
         <v>59</v>
       </c>
@@ -2712,7 +2811,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="44" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +2847,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
@@ -2784,7 +2883,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="44" t="s">
         <v>72</v>
       </c>
@@ -2820,7 +2919,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -2998,12 +3097,12 @@
       <c r="D27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="126" t="s">
+      <c r="F27" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -3102,10 +3201,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDBF9D-FC0A-4E8F-B695-DFD039599801}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="141" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="144"/>
+      <c r="B4" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="144"/>
+      <c r="B5" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="144"/>
+      <c r="B8" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="144"/>
+      <c r="B9" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="148" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D3ED-60ED-4C23-A389-C9C865BC5EAB}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3152,7 +3388,7 @@
       <c r="D2" s="98">
         <v>384000</v>
       </c>
-      <c r="E2" s="135">
+      <c r="E2" s="119">
         <f>C2*D2</f>
         <v>1152000</v>
       </c>
@@ -3173,7 +3409,7 @@
       <c r="D3" s="103">
         <v>162000</v>
       </c>
-      <c r="E3" s="136">
+      <c r="E3" s="120">
         <f>C3*D3</f>
         <v>486000</v>
       </c>
@@ -3194,7 +3430,7 @@
       <c r="D4" s="94">
         <v>160340</v>
       </c>
-      <c r="E4" s="137">
+      <c r="E4" s="121">
         <f>C4*D4</f>
         <v>481020</v>
       </c>
@@ -3215,7 +3451,7 @@
       <c r="D5" s="103">
         <v>3656000</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="120">
         <f t="shared" ref="E5:E11" si="0">C5*D5</f>
         <v>3656000</v>
       </c>
@@ -3236,7 +3472,7 @@
       <c r="D6" s="94">
         <v>140335</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="121">
         <f t="shared" si="0"/>
         <v>842010</v>
       </c>
@@ -3257,7 +3493,7 @@
       <c r="D7" s="103">
         <v>364000</v>
       </c>
-      <c r="E7" s="136">
+      <c r="E7" s="120">
         <f t="shared" si="0"/>
         <v>364000</v>
       </c>
@@ -3278,7 +3514,7 @@
       <c r="D8" s="94">
         <v>127790</v>
       </c>
-      <c r="E8" s="137">
+      <c r="E8" s="121">
         <f t="shared" si="0"/>
         <v>2044640</v>
       </c>
@@ -3299,7 +3535,7 @@
       <c r="D9" s="103">
         <v>96620</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="120">
         <f t="shared" si="0"/>
         <v>96620</v>
       </c>
@@ -3320,7 +3556,7 @@
       <c r="D10" s="94">
         <v>94349</v>
       </c>
-      <c r="E10" s="137">
+      <c r="E10" s="121">
         <f t="shared" si="0"/>
         <v>94349</v>
       </c>
@@ -3341,7 +3577,7 @@
       <c r="D11" s="106">
         <v>24500</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E11" s="122">
         <f t="shared" si="0"/>
         <v>49000</v>
       </c>
@@ -3359,7 +3595,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="114"/>
-      <c r="E12" s="139">
+      <c r="E12" s="123">
         <f>SUM(E2:E11)</f>
         <v>9265639</v>
       </c>

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-04\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC8D81-4ED1-4AE9-8058-B70B0C2278E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D1680-CBE8-4497-A1E9-69F1CFEFCB96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="172">
-  <si>
-    <t>ip cimzés</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
   <si>
     <t>iroda</t>
   </si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>2001:0db8::5:2/64</t>
+  </si>
+  <si>
+    <t>172.16.10.5</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1267,6 +1267,28 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1274,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1507,50 +1529,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1562,9 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1574,6 +1549,61 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1884,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A3:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,55 +1932,50 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="134" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="E3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="E3" s="126" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="I3" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="I3" s="126" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="K4" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="4">
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4">
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,28 +2012,28 @@
         <v>20</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="I6" s="4">
         <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2016,28 +2041,28 @@
         <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="4">
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="4">
         <v>90</v>
       </c>
       <c r="J7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2045,28 +2070,28 @@
         <v>40</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10">
         <v>90</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="I8" s="27">
         <v>101</v>
       </c>
       <c r="J8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>19</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2074,19 +2099,19 @@
         <v>50</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4">
         <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
@@ -2097,10 +2122,10 @@
         <v>60</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2114,10 +2139,10 @@
         <v>101</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -2243,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,922 +2289,932 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
-      <c r="F1" s="128" t="s">
+      <c r="A1" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
+      <c r="F1" s="138" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="140"/>
+      <c r="K1" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
-      <c r="K1" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="85" t="s">
-        <v>63</v>
-      </c>
       <c r="I2" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>63</v>
-      </c>
       <c r="N2" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="145" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>82</v>
+        <v>140</v>
+      </c>
+      <c r="F3" s="145" t="s">
+        <v>81</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="K3" s="137" t="s">
-        <v>107</v>
+        <v>140</v>
+      </c>
+      <c r="K3" s="146" t="s">
+        <v>106</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="78"/>
       <c r="N3" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="42">
         <v>10</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="135"/>
+        <v>41</v>
+      </c>
+      <c r="F4" s="145"/>
       <c r="G4" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="42">
         <v>10</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="138"/>
+        <v>82</v>
+      </c>
+      <c r="K4" s="147"/>
       <c r="L4" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="66">
         <v>10</v>
       </c>
       <c r="N4" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="145"/>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="31">
+        <v>20</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="145"/>
+      <c r="G5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="31">
+        <v>20</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="147"/>
+      <c r="L5" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="54">
+        <v>20</v>
+      </c>
+      <c r="N5" s="60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="30" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="145"/>
+      <c r="B6" s="44" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="31">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="31">
-        <v>20</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="M5" s="54">
-        <v>20</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
-      <c r="B6" s="44" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="45">
         <v>30</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="135"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="45">
         <v>30</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="139"/>
+        <v>84</v>
+      </c>
+      <c r="K6" s="148"/>
       <c r="L6" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="53">
         <v>40</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="31">
         <v>40</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="135"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="145"/>
       <c r="G7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="31">
         <v>40</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="152" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="135"/>
+      <c r="A8" s="145"/>
       <c r="B8" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="45">
         <v>50</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="135"/>
+        <v>45</v>
+      </c>
+      <c r="F8" s="145"/>
       <c r="G8" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="45">
         <v>50</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="88">
-        <v>20</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>126</v>
+        <v>69</v>
+      </c>
+      <c r="K8" s="153"/>
+      <c r="L8" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="90">
+        <v>10</v>
+      </c>
+      <c r="N8" s="151" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31">
         <v>60</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="135"/>
+        <v>46</v>
+      </c>
+      <c r="F9" s="145"/>
       <c r="G9" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="31">
         <v>60</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="136"/>
-      <c r="L9" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="153"/>
+      <c r="L9" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="88">
+        <v>20</v>
+      </c>
+      <c r="N9" s="89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="45">
+        <v>20</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="153"/>
+      <c r="L10" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="78">
+        <v>20</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="145"/>
+      <c r="B11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="34">
+        <v>20</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="145"/>
+      <c r="G11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="153"/>
+      <c r="L11" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="78">
-        <v>20</v>
-      </c>
-      <c r="N9" s="87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="45">
-        <v>20</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="135" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="M11" s="88">
+        <v>20</v>
+      </c>
+      <c r="N11" s="89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="145"/>
+      <c r="B12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="145"/>
+      <c r="G12" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="54">
+        <v>20</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="80" t="s">
+      <c r="K12" s="153"/>
+      <c r="L12" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="88">
-        <v>20</v>
-      </c>
-      <c r="N10" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="34">
-        <v>20</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="34" t="s">
+      <c r="M12" s="78">
+        <v>20</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="145"/>
+      <c r="B13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="145"/>
+      <c r="G13" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="53">
+        <v>20</v>
+      </c>
+      <c r="I13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="58" t="s">
+      <c r="K13" s="153"/>
+      <c r="L13" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="78">
-        <v>20</v>
-      </c>
-      <c r="N11" s="87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
-      <c r="B12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="45" t="s">
+      <c r="M13" s="88">
+        <v>20</v>
+      </c>
+      <c r="N13" s="89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="145"/>
+      <c r="B14" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="45">
+        <v>20</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="54">
-        <v>20</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="80" t="s">
+      <c r="F14" s="145"/>
+      <c r="G14" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="54">
+        <v>20</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="153"/>
+      <c r="L14" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="88">
-        <v>20</v>
-      </c>
-      <c r="N12" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="34" t="s">
+      <c r="M14" s="78">
+        <v>20</v>
+      </c>
+      <c r="N14" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="145"/>
+      <c r="B15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="34">
+        <v>20</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="53">
-        <v>20</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="136"/>
-      <c r="L13" s="58" t="s">
+      <c r="F15" s="145"/>
+      <c r="G15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="56">
+        <v>20</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="153"/>
+      <c r="L15" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="78">
-        <v>20</v>
-      </c>
-      <c r="N13" s="87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
-      <c r="B14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="45">
-        <v>20</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="135"/>
-      <c r="G14" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="54">
-        <v>20</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="136"/>
-      <c r="L14" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="88">
-        <v>20</v>
-      </c>
-      <c r="N14" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="33" t="s">
+      <c r="M15" s="88">
+        <v>20</v>
+      </c>
+      <c r="N15" s="89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="145"/>
+      <c r="B16" s="44" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="34">
-        <v>20</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="135"/>
-      <c r="G15" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="56">
-        <v>20</v>
-      </c>
-      <c r="I15" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="136"/>
-      <c r="L15" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="78">
-        <v>20</v>
-      </c>
-      <c r="N15" s="87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="135"/>
-      <c r="B16" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="C16" s="45">
         <v>40</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="135"/>
+        <v>65</v>
+      </c>
+      <c r="F16" s="145"/>
       <c r="G16" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="153"/>
+      <c r="L16" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="78">
+        <v>20</v>
+      </c>
+      <c r="N16" s="87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="145"/>
+      <c r="B17" s="33" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="136"/>
-      <c r="L16" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="88">
-        <v>20</v>
-      </c>
-      <c r="N16" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="135"/>
-      <c r="B17" s="33" t="s">
-        <v>56</v>
       </c>
       <c r="C17" s="34">
         <v>50</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="135"/>
+        <v>66</v>
+      </c>
+      <c r="F17" s="145"/>
       <c r="G17" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="56">
         <v>10</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="54">
-        <v>20</v>
-      </c>
-      <c r="N17" s="46" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="K17" s="154"/>
+      <c r="L17" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="88">
+        <v>20</v>
+      </c>
+      <c r="N17" s="89" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="135"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="45">
         <v>20</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="54">
         <v>10</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="56">
-        <v>20</v>
-      </c>
-      <c r="N18" s="59" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="54">
+        <v>20</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="34">
         <v>30</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="56">
         <v>20</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="54">
-        <v>20</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K19" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="56">
+        <v>20</v>
+      </c>
+      <c r="N19" s="59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="45">
         <v>50</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="54">
+        <v>20</v>
+      </c>
+      <c r="I20" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="L20" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="54">
+        <v>20</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="145"/>
+      <c r="B21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="54">
-        <v>20</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="56">
-        <v>20</v>
-      </c>
-      <c r="N20" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="135"/>
-      <c r="B21" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="82" t="s">
-        <v>98</v>
-      </c>
       <c r="G21" s="80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="56">
         <v>20</v>
       </c>
       <c r="I21" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="54">
-        <v>20</v>
-      </c>
-      <c r="N21" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="56">
+        <v>20</v>
+      </c>
+      <c r="N21" s="59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="45">
         <v>50</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" s="79">
         <v>30</v>
       </c>
       <c r="I22" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="56">
-        <v>20</v>
-      </c>
-      <c r="N22" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="54">
+        <v>20</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="34">
         <v>50</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="M23" s="54">
-        <v>20</v>
-      </c>
-      <c r="N23" s="46" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="K23" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="56">
+        <v>20</v>
+      </c>
+      <c r="N23" s="59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>75</v>
       </c>
       <c r="C24" s="45">
         <v>40</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="54">
+        <v>20</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="56">
-        <v>20</v>
-      </c>
-      <c r="N24" s="59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>76</v>
-      </c>
       <c r="B25" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="34">
         <v>20</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="M25" s="79">
-        <v>20</v>
-      </c>
-      <c r="N25" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K25" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="56">
+        <v>20</v>
+      </c>
+      <c r="N25" s="59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="45">
         <v>20</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="79">
+        <v>20</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="34">
         <v>20</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="131" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="133"/>
+        <v>80</v>
+      </c>
+      <c r="F27" s="141" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="45">
         <v>20</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="71" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="34">
         <v>30</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="62" t="s">
-        <v>102</v>
-      </c>
       <c r="H29" s="66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="49">
         <v>20</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3191,9 +3226,9 @@
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A21"/>
     <mergeCell ref="F3:F9"/>
-    <mergeCell ref="K7:K16"/>
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3204,7 +3239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDBF9D-FC0A-4E8F-B695-DFD039599801}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3216,116 +3251,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="141" t="s">
+      <c r="A1" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="142" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="B2" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="61" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="149" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="B3" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="146" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="149"/>
+      <c r="B4" s="62" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="144"/>
-      <c r="B4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="61" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="149"/>
+      <c r="B5" s="130" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="144"/>
-      <c r="B5" s="147" t="s">
+      <c r="C5" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="146" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="61" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="149" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
+      <c r="B7" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="146" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="149"/>
+      <c r="B8" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="61" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="149"/>
+      <c r="B9" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="129" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="147" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="146" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="61" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="131" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="148" t="s">
+      <c r="B11" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="133" t="s">
         <v>170</v>
-      </c>
-      <c r="B11" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3357,30 +3392,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="D1" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" s="117" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="97">
         <v>3</v>
@@ -3393,15 +3428,15 @@
         <v>1152000</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="102">
         <v>3</v>
@@ -3414,15 +3449,15 @@
         <v>486000</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="93">
         <v>3</v>
@@ -3435,15 +3470,15 @@
         <v>481020</v>
       </c>
       <c r="F4" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="100" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="102">
         <v>1</v>
@@ -3456,15 +3491,15 @@
         <v>3656000</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="93">
         <v>6</v>
@@ -3477,15 +3512,15 @@
         <v>842010</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="102">
         <v>1</v>
@@ -3498,15 +3533,15 @@
         <v>364000</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="93">
         <v>16</v>
@@ -3519,15 +3554,15 @@
         <v>2044640</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="100" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>148</v>
       </c>
       <c r="C9" s="102">
         <v>1</v>
@@ -3540,15 +3575,15 @@
         <v>96620</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="93">
         <v>1</v>
@@ -3561,15 +3596,15 @@
         <v>94349</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="105">
         <v>2</v>
@@ -3582,12 +3617,12 @@
         <v>49000</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="112"/>
       <c r="C12" s="113">

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3041TAN-13\Documents\GitHub\mesterremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D1680-CBE8-4497-A1E9-69F1CFEFCB96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA804D-6D98-4386-9B56-9658B93FBFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="175">
   <si>
     <t>iroda</t>
   </si>
@@ -498,52 +507,61 @@
     <t>Gig0/0/0</t>
   </si>
   <si>
-    <t>2001:0db8::1:1/64</t>
-  </si>
-  <si>
     <t>ISP</t>
   </si>
   <si>
-    <t>2001:0db8::1:2/64</t>
-  </si>
-  <si>
     <t>Gig0/1/0</t>
   </si>
   <si>
-    <t>2001:0db8::2:1/64</t>
-  </si>
-  <si>
     <t>Gig0/2/0</t>
   </si>
   <si>
-    <t>2001:0db8::3:1/64</t>
-  </si>
-  <si>
-    <t>2001:0db8::2:2/64</t>
-  </si>
-  <si>
     <t>Building network</t>
   </si>
   <si>
-    <t>2001:0db8::4:1/64</t>
-  </si>
-  <si>
-    <t>2001:0db8::3:2/64</t>
-  </si>
-  <si>
-    <t>2001:0db8::5:1/64</t>
-  </si>
-  <si>
-    <t>2001:0db8::4:2/64</t>
-  </si>
-  <si>
     <t>Rbackup</t>
   </si>
   <si>
-    <t>2001:0db8::5:2/64</t>
-  </si>
-  <si>
     <t>172.16.10.5</t>
+  </si>
+  <si>
+    <t>2001:0db8:1::1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:1::2/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:2::1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:3::1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:2::2/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:4::1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:3::2/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:5::1/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:4::2/64</t>
+  </si>
+  <si>
+    <t>2001:0db8:5::2/64</t>
+  </si>
+  <si>
+    <t>hsrp ip</t>
+  </si>
+  <si>
+    <t>.3</t>
+  </si>
+  <si>
+    <t>BGP</t>
   </si>
 </sst>
 </file>
@@ -677,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1289,6 +1307,59 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1296,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1461,7 +1532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,7 +1541,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,14 +1551,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1549,6 +1616,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,19 +1659,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1933,21 +2012,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="E3" s="136" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="E3" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="I3" s="136" t="s">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="I3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2266,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,24 +2368,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="143"/>
-      <c r="F1" s="138" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="141"/>
+      <c r="F1" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="140"/>
-      <c r="K1" s="138" t="s">
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="K1" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="138"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -2347,7 +2426,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="143" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2357,7 +2436,7 @@
       <c r="D3" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="143" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -2367,7 +2446,7 @@
       <c r="I3" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="144" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="58" t="s">
@@ -2379,7 +2458,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="145"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="41" t="s">
         <v>35</v>
       </c>
@@ -2389,7 +2468,7 @@
       <c r="D4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="145"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="41" t="s">
         <v>35</v>
       </c>
@@ -2399,7 +2478,7 @@
       <c r="I4" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="147"/>
+      <c r="K4" s="145"/>
       <c r="L4" s="62" t="s">
         <v>121</v>
       </c>
@@ -2411,7 +2490,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
+      <c r="A5" s="143"/>
       <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2500,7 @@
       <c r="D5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="145"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="30" t="s">
         <v>36</v>
       </c>
@@ -2431,7 +2510,7 @@
       <c r="I5" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="147"/>
+      <c r="K5" s="145"/>
       <c r="L5" s="58" t="s">
         <v>119</v>
       </c>
@@ -2443,7 +2522,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
@@ -2454,7 +2533,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="145"/>
+      <c r="F6" s="143"/>
       <c r="G6" s="44" t="s">
         <v>37</v>
       </c>
@@ -2464,7 +2543,7 @@
       <c r="I6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="148"/>
+      <c r="K6" s="146"/>
       <c r="L6" s="62" t="s">
         <v>120</v>
       </c>
@@ -2476,7 +2555,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2565,7 @@
       <c r="D7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="145"/>
+      <c r="F7" s="143"/>
       <c r="G7" s="30" t="s">
         <v>38</v>
       </c>
@@ -2496,7 +2575,7 @@
       <c r="I7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="152" t="s">
+      <c r="K7" s="147" t="s">
         <v>105</v>
       </c>
       <c r="L7" s="58" t="s">
@@ -2510,7 +2589,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="145"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="44" t="s">
         <v>39</v>
       </c>
@@ -2520,7 +2599,7 @@
       <c r="D8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="145"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="44" t="s">
         <v>39</v>
       </c>
@@ -2530,19 +2609,19 @@
       <c r="I8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="153"/>
-      <c r="L8" s="150" t="s">
+      <c r="K8" s="148"/>
+      <c r="L8" s="130" t="s">
         <v>71</v>
       </c>
       <c r="M8" s="90">
         <v>10</v>
       </c>
-      <c r="N8" s="151" t="s">
-        <v>171</v>
+      <c r="N8" s="131" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="30" t="s">
         <v>40</v>
       </c>
@@ -2552,7 +2631,7 @@
       <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="145"/>
+      <c r="F9" s="143"/>
       <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
@@ -2562,7 +2641,7 @@
       <c r="I9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="153"/>
+      <c r="K9" s="148"/>
       <c r="L9" s="80" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +2653,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="143" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2586,7 +2665,7 @@
       <c r="D10" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="145" t="s">
+      <c r="F10" s="143" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -2598,7 +2677,7 @@
       <c r="I10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="153"/>
+      <c r="K10" s="148"/>
       <c r="L10" s="58" t="s">
         <v>49</v>
       </c>
@@ -2610,7 +2689,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="33" t="s">
         <v>49</v>
       </c>
@@ -2620,7 +2699,7 @@
       <c r="D11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="33" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2709,7 @@
       <c r="I11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="153"/>
+      <c r="K11" s="148"/>
       <c r="L11" s="80" t="s">
         <v>50</v>
       </c>
@@ -2642,7 +2721,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="44" t="s">
         <v>50</v>
       </c>
@@ -2652,7 +2731,7 @@
       <c r="D12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="145"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="44" t="s">
         <v>50</v>
       </c>
@@ -2662,7 +2741,7 @@
       <c r="I12" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="153"/>
+      <c r="K12" s="148"/>
       <c r="L12" s="58" t="s">
         <v>51</v>
       </c>
@@ -2674,7 +2753,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="33" t="s">
         <v>51</v>
       </c>
@@ -2684,7 +2763,7 @@
       <c r="D13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="145"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="33" t="s">
         <v>51</v>
       </c>
@@ -2694,7 +2773,7 @@
       <c r="I13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="153"/>
+      <c r="K13" s="148"/>
       <c r="L13" s="80" t="s">
         <v>52</v>
       </c>
@@ -2706,7 +2785,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="44" t="s">
         <v>52</v>
       </c>
@@ -2716,7 +2795,7 @@
       <c r="D14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="145"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="44" t="s">
         <v>52</v>
       </c>
@@ -2726,7 +2805,7 @@
       <c r="I14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="153"/>
+      <c r="K14" s="148"/>
       <c r="L14" s="58" t="s">
         <v>53</v>
       </c>
@@ -2738,7 +2817,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="145"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="33" t="s">
         <v>53</v>
       </c>
@@ -2748,7 +2827,7 @@
       <c r="D15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="145"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="55" t="s">
         <v>53</v>
       </c>
@@ -2758,7 +2837,7 @@
       <c r="I15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="153"/>
+      <c r="K15" s="148"/>
       <c r="L15" s="80" t="s">
         <v>54</v>
       </c>
@@ -2770,7 +2849,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="44" t="s">
         <v>54</v>
       </c>
@@ -2780,7 +2859,7 @@
       <c r="D16" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="145"/>
+      <c r="F16" s="143"/>
       <c r="G16" s="58" t="s">
         <v>54</v>
       </c>
@@ -2790,7 +2869,7 @@
       <c r="I16" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="153"/>
+      <c r="K16" s="148"/>
       <c r="L16" s="58" t="s">
         <v>116</v>
       </c>
@@ -2802,7 +2881,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="33" t="s">
         <v>55</v>
       </c>
@@ -2812,7 +2891,7 @@
       <c r="D17" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="145"/>
+      <c r="F17" s="143"/>
       <c r="G17" s="55" t="s">
         <v>58</v>
       </c>
@@ -2822,7 +2901,7 @@
       <c r="I17" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="154"/>
+      <c r="K17" s="149"/>
       <c r="L17" s="80" t="s">
         <v>55</v>
       </c>
@@ -2834,7 +2913,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
+      <c r="A18" s="143"/>
       <c r="B18" s="44" t="s">
         <v>56</v>
       </c>
@@ -2870,7 +2949,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="145"/>
+      <c r="A19" s="143"/>
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -2906,7 +2985,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="145"/>
+      <c r="A20" s="143"/>
       <c r="B20" s="44" t="s">
         <v>71</v>
       </c>
@@ -2942,7 +3021,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
+      <c r="A21" s="143"/>
       <c r="B21" s="33" t="s">
         <v>58</v>
       </c>
@@ -3132,12 +3211,12 @@
       <c r="D27" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="141" t="s">
+      <c r="F27" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="143"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="141"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -3217,8 +3296,30 @@
         <v>104</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="151"/>
+      <c r="B33" s="152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="155"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F27:I27"/>
@@ -3237,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDBF9D-FC0A-4E8F-B695-DFD039599801}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,117 +3351,150 @@
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="122" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="D1" s="156" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="B3" s="124" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="150"/>
+      <c r="B4" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="129" t="s">
+      <c r="C4" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="150"/>
+      <c r="B5" s="126" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="149"/>
-      <c r="B5" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="C5" s="125" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="123" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="129" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="149"/>
+      <c r="C7" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="150"/>
       <c r="B8" s="62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="149"/>
-      <c r="B9" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="150"/>
+      <c r="B9" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="123" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>155</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="133" t="s">
-        <v>170</v>
+      <c r="C11" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3511,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3385,70 +3519,69 @@
     <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="113" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="97">
+      <c r="C2" s="96">
         <v>3</v>
       </c>
-      <c r="D2" s="98">
+      <c r="D2" s="115">
         <v>384000</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="115">
         <f>C2*D2</f>
         <v>1152000</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="103" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="100">
         <v>3</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="116">
         <v>162000</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="116">
         <f>C3*D3</f>
         <v>486000</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="104" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3462,35 +3595,35 @@
       <c r="C4" s="93">
         <v>3</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="117">
         <v>160340</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="117">
         <f>C4*D4</f>
         <v>481020</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="102">
+      <c r="C5" s="100">
         <v>1</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="116">
         <v>3656000</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="116">
         <f t="shared" ref="E5:E11" si="0">C5*D5</f>
         <v>3656000</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="104" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3504,35 +3637,35 @@
       <c r="C6" s="93">
         <v>6</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="117">
         <v>140335</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="117">
         <f t="shared" si="0"/>
         <v>842010</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="100">
         <v>1</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="116">
         <v>364000</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="116">
         <f t="shared" si="0"/>
         <v>364000</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="104" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3546,35 +3679,35 @@
       <c r="C8" s="93">
         <v>16</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="117">
         <v>127790</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="117">
         <f t="shared" si="0"/>
         <v>2044640</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="100">
         <v>1</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="116">
         <v>96620</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="116">
         <f t="shared" si="0"/>
         <v>96620</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="104" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3588,53 +3721,53 @@
       <c r="C10" s="93">
         <v>1</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="117">
         <v>94349</v>
       </c>
-      <c r="E10" s="121">
+      <c r="E10" s="117">
         <f t="shared" si="0"/>
         <v>94349</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="105" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="102">
         <v>2</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="118">
         <v>24500</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="118">
         <f t="shared" si="0"/>
         <v>49000</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="106" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113">
+      <c r="B12" s="108"/>
+      <c r="C12" s="109">
         <f>SUM(C2:C11)</f>
         <v>37</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="123">
+      <c r="D12" s="110"/>
+      <c r="E12" s="119">
         <f>SUM(E2:E11)</f>
         <v>9265639</v>
       </c>
-      <c r="F12" s="115"/>
+      <c r="F12" s="111"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>

--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3041TAN-13\Documents\GitHub\mesterremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3406TAN-01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAA804D-6D98-4386-9B56-9658B93FBFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094385F9-88AC-449E-8931-6072A81282F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
     <sheet name="DeviceIP" sheetId="2" r:id="rId2"/>
     <sheet name="Router IPv6" sheetId="4" r:id="rId3"/>
     <sheet name="Device$" sheetId="3" r:id="rId4"/>
+    <sheet name="Munka1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="174">
   <si>
     <t>iroda</t>
   </si>
@@ -318,9 +310,6 @@
     <t>LAN</t>
   </si>
   <si>
-    <t>192.168.10.254/24</t>
-  </si>
-  <si>
     <t>S_printer</t>
   </si>
   <si>
@@ -519,9 +508,6 @@
     <t>Building network</t>
   </si>
   <si>
-    <t>Rbackup</t>
-  </si>
-  <si>
     <t>172.16.10.5</t>
   </si>
   <si>
@@ -562,6 +548,9 @@
   </si>
   <si>
     <t>BGP</t>
+  </si>
+  <si>
+    <t>192.168.20.253/24</t>
   </si>
 </sst>
 </file>
@@ -1618,70 +1607,70 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1995,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2012,21 +2001,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="E3" s="134" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="E3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="I3" s="134" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="I3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -2054,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2132,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="4">
         <v>90</v>
@@ -2348,7 +2337,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,24 +2357,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="141"/>
-      <c r="F1" s="136" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="F1" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="138"/>
-      <c r="K1" s="136" t="s">
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="K1" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="138"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -2426,7 +2415,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="149" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -2434,9 +2423,9 @@
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="149" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="30" t="s">
@@ -2444,21 +2433,21 @@
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="K3" s="144" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="K3" s="150" t="s">
+        <v>105</v>
       </c>
       <c r="L3" s="58" t="s">
         <v>34</v>
       </c>
       <c r="M3" s="78"/>
       <c r="N3" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="41" t="s">
         <v>35</v>
       </c>
@@ -2468,7 +2457,7 @@
       <c r="D4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="143"/>
+      <c r="F4" s="149"/>
       <c r="G4" s="41" t="s">
         <v>35</v>
       </c>
@@ -2478,19 +2467,19 @@
       <c r="I4" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="145"/>
+      <c r="K4" s="151"/>
       <c r="L4" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="66">
         <v>10</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
@@ -2500,7 +2489,7 @@
       <c r="D5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="143"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="30" t="s">
         <v>36</v>
       </c>
@@ -2510,19 +2499,19 @@
       <c r="I5" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="145"/>
+      <c r="K5" s="151"/>
       <c r="L5" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="54">
         <v>20</v>
       </c>
       <c r="N5" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="44" t="s">
         <v>37</v>
       </c>
@@ -2533,7 +2522,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="143"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="44" t="s">
         <v>37</v>
       </c>
@@ -2543,19 +2532,19 @@
       <c r="I6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="146"/>
+      <c r="K6" s="152"/>
       <c r="L6" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M6" s="53">
         <v>40</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2554,7 @@
       <c r="D7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="30" t="s">
         <v>38</v>
       </c>
@@ -2575,8 +2564,8 @@
       <c r="I7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="147" t="s">
-        <v>105</v>
+      <c r="K7" s="153" t="s">
+        <v>104</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>58</v>
@@ -2585,11 +2574,11 @@
         <v>63</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="44" t="s">
         <v>39</v>
       </c>
@@ -2599,7 +2588,7 @@
       <c r="D8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="44" t="s">
         <v>39</v>
       </c>
@@ -2609,7 +2598,7 @@
       <c r="I8" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="148"/>
+      <c r="K8" s="154"/>
       <c r="L8" s="130" t="s">
         <v>71</v>
       </c>
@@ -2617,11 +2606,11 @@
         <v>10</v>
       </c>
       <c r="N8" s="131" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="30" t="s">
         <v>40</v>
       </c>
@@ -2631,7 +2620,7 @@
       <c r="D9" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="143"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
@@ -2641,7 +2630,7 @@
       <c r="I9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="148"/>
+      <c r="K9" s="154"/>
       <c r="L9" s="80" t="s">
         <v>48</v>
       </c>
@@ -2649,11 +2638,11 @@
         <v>20</v>
       </c>
       <c r="N9" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="149" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="44" t="s">
@@ -2665,7 +2654,7 @@
       <c r="D10" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="149" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="44" t="s">
@@ -2677,7 +2666,7 @@
       <c r="I10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="148"/>
+      <c r="K10" s="154"/>
       <c r="L10" s="58" t="s">
         <v>49</v>
       </c>
@@ -2685,11 +2674,11 @@
         <v>20</v>
       </c>
       <c r="N10" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="33" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2688,7 @@
       <c r="D11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="143"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="33" t="s">
         <v>49</v>
       </c>
@@ -2709,7 +2698,7 @@
       <c r="I11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="148"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="80" t="s">
         <v>50</v>
       </c>
@@ -2717,11 +2706,11 @@
         <v>20</v>
       </c>
       <c r="N11" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="44" t="s">
         <v>50</v>
       </c>
@@ -2731,7 +2720,7 @@
       <c r="D12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="143"/>
+      <c r="F12" s="149"/>
       <c r="G12" s="44" t="s">
         <v>50</v>
       </c>
@@ -2739,9 +2728,9 @@
         <v>20</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="148"/>
+        <v>173</v>
+      </c>
+      <c r="K12" s="154"/>
       <c r="L12" s="58" t="s">
         <v>51</v>
       </c>
@@ -2749,11 +2738,11 @@
         <v>20</v>
       </c>
       <c r="N12" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="33" t="s">
         <v>51</v>
       </c>
@@ -2763,7 +2752,7 @@
       <c r="D13" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="143"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="33" t="s">
         <v>51</v>
       </c>
@@ -2771,9 +2760,9 @@
         <v>20</v>
       </c>
       <c r="I13" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="148"/>
+        <v>173</v>
+      </c>
+      <c r="K13" s="154"/>
       <c r="L13" s="80" t="s">
         <v>52</v>
       </c>
@@ -2781,11 +2770,11 @@
         <v>20</v>
       </c>
       <c r="N13" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="44" t="s">
         <v>52</v>
       </c>
@@ -2795,7 +2784,7 @@
       <c r="D14" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="143"/>
+      <c r="F14" s="149"/>
       <c r="G14" s="44" t="s">
         <v>52</v>
       </c>
@@ -2803,9 +2792,9 @@
         <v>20</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="148"/>
+        <v>173</v>
+      </c>
+      <c r="K14" s="154"/>
       <c r="L14" s="58" t="s">
         <v>53</v>
       </c>
@@ -2813,11 +2802,11 @@
         <v>20</v>
       </c>
       <c r="N14" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="33" t="s">
         <v>53</v>
       </c>
@@ -2827,7 +2816,7 @@
       <c r="D15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="143"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="55" t="s">
         <v>53</v>
       </c>
@@ -2835,9 +2824,9 @@
         <v>20</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="148"/>
+        <v>173</v>
+      </c>
+      <c r="K15" s="154"/>
       <c r="L15" s="80" t="s">
         <v>54</v>
       </c>
@@ -2845,11 +2834,11 @@
         <v>20</v>
       </c>
       <c r="N15" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="44" t="s">
         <v>54</v>
       </c>
@@ -2859,7 +2848,7 @@
       <c r="D16" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="143"/>
+      <c r="F16" s="149"/>
       <c r="G16" s="58" t="s">
         <v>54</v>
       </c>
@@ -2869,19 +2858,19 @@
       <c r="I16" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="148"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M16" s="78">
         <v>20</v>
       </c>
       <c r="N16" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="33" t="s">
         <v>55</v>
       </c>
@@ -2891,7 +2880,7 @@
       <c r="D17" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="143"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="55" t="s">
         <v>58</v>
       </c>
@@ -2899,9 +2888,9 @@
         <v>10</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="149"/>
+        <v>90</v>
+      </c>
+      <c r="K17" s="155"/>
       <c r="L17" s="80" t="s">
         <v>55</v>
       </c>
@@ -2909,11 +2898,11 @@
         <v>20</v>
       </c>
       <c r="N17" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="44" t="s">
         <v>56</v>
       </c>
@@ -2936,7 +2925,7 @@
         <v>89</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L18" s="58" t="s">
         <v>74</v>
@@ -2949,7 +2938,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -2960,7 +2949,7 @@
         <v>67</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>74</v>
@@ -2972,7 +2961,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="80" t="s">
         <v>74</v>
@@ -2985,7 +2974,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="44" t="s">
         <v>71</v>
       </c>
@@ -2996,7 +2985,7 @@
         <v>66</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="58" t="s">
         <v>74</v>
@@ -3008,7 +2997,7 @@
         <v>80</v>
       </c>
       <c r="K20" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="58" t="s">
         <v>74</v>
@@ -3021,7 +3010,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="33" t="s">
         <v>58</v>
       </c>
@@ -3032,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>74</v>
@@ -3044,7 +3033,7 @@
         <v>80</v>
       </c>
       <c r="K21" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" s="55" t="s">
         <v>74</v>
@@ -3058,7 +3047,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>68</v>
@@ -3070,7 +3059,7 @@
         <v>72</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="64" t="s">
         <v>74</v>
@@ -3082,7 +3071,7 @@
         <v>80</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="58" t="s">
         <v>74</v>
@@ -3108,7 +3097,7 @@
         <v>87</v>
       </c>
       <c r="K23" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L23" s="55" t="s">
         <v>74</v>
@@ -3134,7 +3123,7 @@
         <v>88</v>
       </c>
       <c r="K24" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L24" s="58" t="s">
         <v>74</v>
@@ -3160,7 +3149,7 @@
         <v>80</v>
       </c>
       <c r="K25" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L25" s="80" t="s">
         <v>74</v>
@@ -3186,7 +3175,7 @@
         <v>80</v>
       </c>
       <c r="K26" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" s="64" t="s">
         <v>74</v>
@@ -3211,12 +3200,12 @@
       <c r="D27" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="141"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
@@ -3258,21 +3247,21 @@
         <v>80</v>
       </c>
       <c r="F29" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="62" t="s">
         <v>100</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>101</v>
       </c>
       <c r="H29" s="66" t="s">
         <v>63</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>74</v>
@@ -3284,38 +3273,38 @@
         <v>80</v>
       </c>
       <c r="F30" s="69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="67" t="s">
         <v>63</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="151"/>
-      <c r="B33" s="152" t="s">
-        <v>172</v>
+      <c r="A33" s="132"/>
+      <c r="B33" s="133" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="154" t="s">
-        <v>173</v>
+      <c r="B34" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="153" t="s">
+      <c r="A35" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="155"/>
+      <c r="B35" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3340,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDBF9D-FC0A-4E8F-B695-DFD039599801}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,62 +3345,62 @@
         <v>29</v>
       </c>
       <c r="B1" s="121" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>174</v>
+      <c r="D1" s="135" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>155</v>
-      </c>
       <c r="C2" s="61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
-        <v>156</v>
+      <c r="A3" s="156" t="s">
+        <v>155</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
+      <c r="A4" s="156"/>
       <c r="B4" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="150"/>
+      <c r="A5" s="156"/>
       <c r="B5" s="126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>300</v>
@@ -3419,51 +3408,51 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
-        <v>159</v>
+      <c r="A7" s="156" t="s">
+        <v>158</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="125" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7">
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="150"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -3474,10 +3463,10 @@
         <v>33</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10">
         <v>400</v>
@@ -3485,13 +3474,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="127" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="B11" s="128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="129" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11">
         <v>500</v>
@@ -3528,27 +3517,27 @@
         <v>29</v>
       </c>
       <c r="B1" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="D1" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="113" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="96">
         <v>3</v>
@@ -3561,15 +3550,15 @@
         <v>1152000</v>
       </c>
       <c r="F2" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="100">
         <v>3</v>
@@ -3582,15 +3571,15 @@
         <v>486000</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="93">
         <v>3</v>
@@ -3603,15 +3592,15 @@
         <v>481020</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="100">
         <v>1</v>
@@ -3624,15 +3613,15 @@
         <v>3656000</v>
       </c>
       <c r="F5" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="93">
         <v>6</v>
@@ -3645,15 +3634,15 @@
         <v>842010</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="100">
         <v>1</v>
@@ -3666,15 +3655,15 @@
         <v>364000</v>
       </c>
       <c r="F7" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="93">
         <v>16</v>
@@ -3687,15 +3676,15 @@
         <v>2044640</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>146</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>147</v>
       </c>
       <c r="C9" s="100">
         <v>1</v>
@@ -3708,15 +3697,15 @@
         <v>96620</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="93">
         <v>1</v>
@@ -3729,15 +3718,15 @@
         <v>94349</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="102">
         <v>2</v>
@@ -3750,12 +3739,12 @@
         <v>49000</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="108"/>
       <c r="C12" s="109">
@@ -4062,4 +4051,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF94E5D-01FC-437D-B92B-139C6ADE012E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/adatok.xlsx
+++ b/adatok.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3401TAN-03\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikoz\Documents\GitHub\mesterremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20721A-C041-4553-B4DC-8FF2232B6CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VLANs" sheetId="1" r:id="rId1"/>
     <sheet name="DeviceIP" sheetId="2" r:id="rId2"/>
     <sheet name="Router IP" sheetId="4" r:id="rId3"/>
     <sheet name="Device$" sheetId="3" r:id="rId4"/>
-    <sheet name="Munka1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="185">
   <si>
     <t>vendég</t>
   </si>
@@ -370,9 +368,6 @@
     <t>172.16.10.1/24</t>
   </si>
   <si>
-    <t>172.16.20.1/24</t>
-  </si>
-  <si>
     <t>172.16.40.1/24</t>
   </si>
   <si>
@@ -581,12 +576,18 @@
   </si>
   <si>
     <t>IP address</t>
+  </si>
+  <si>
+    <t>DHCPv6</t>
+  </si>
+  <si>
+    <t>172.16.20.1/24 ; 2001:20::1/64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
@@ -729,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1391,12 +1392,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1476,39 +1490,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,178 +1571,142 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,6 +1746,84 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,370 +2135,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K100"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="E3" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
+      <c r="I3" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="I3" s="39" t="s">
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="C4" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+    </row>
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
         <v>10</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="52">
+      <c r="D5" s="34"/>
+      <c r="E5" s="41">
         <v>10</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="52">
+      <c r="H5" s="34"/>
+      <c r="I5" s="41">
         <v>10</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <v>20</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="52">
+      <c r="D6" s="34"/>
+      <c r="E6" s="41">
         <v>20</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="52">
+      <c r="H6" s="34"/>
+      <c r="I6" s="41">
         <v>40</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <v>30</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="52">
+      <c r="D7" s="34"/>
+      <c r="E7" s="41">
         <v>40</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="52">
+      <c r="H7" s="34"/>
+      <c r="I7" s="41">
         <v>90</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
         <v>40</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="57">
+      <c r="D8" s="34"/>
+      <c r="E8" s="46">
         <v>90</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="60">
+      <c r="H8" s="34"/>
+      <c r="I8" s="49">
         <v>101</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
         <v>50</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="52">
+      <c r="D9" s="34"/>
+      <c r="E9" s="41">
         <v>101</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="H9" s="34"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
         <v>90</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="C10" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
         <v>101</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
@@ -2488,316 +2511,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F91E5C-36CD-4A38-9046-BF7D00C4A5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="F1" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="K1" s="72" t="s">
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="126"/>
+      <c r="K1" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="74"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="93" t="s">
+      <c r="H2" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="91" t="s">
+      <c r="L2" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="N2" s="93" t="s">
+      <c r="M2" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="N2" s="74" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="130" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="130" t="s">
         <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="32" t="s">
+      <c r="I3" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="95" t="s">
+      <c r="L3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="130"/>
       <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="103" t="s">
+      <c r="K4" s="132"/>
+      <c r="L4" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="103">
+      <c r="M4" s="84">
         <v>10</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="130"/>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="2">
         <v>20</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="95" t="s">
+      <c r="K5" s="132"/>
+      <c r="L5" s="76" t="s">
         <v>109</v>
       </c>
       <c r="M5" s="5">
         <v>20</v>
       </c>
-      <c r="N5" s="98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="N5" s="79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="130"/>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="62" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="5">
         <v>30</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="103" t="s">
+      <c r="K6" s="133"/>
+      <c r="L6" s="84" t="s">
         <v>110</v>
       </c>
       <c r="M6" s="2">
         <v>40</v>
       </c>
-      <c r="N6" s="83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="N6" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="130"/>
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>40</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>40</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="95" t="s">
+      <c r="L7" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="79" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="130"/>
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="5">
         <v>50</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="130"/>
       <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="5">
         <v>50</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="104" t="s">
+      <c r="K8" s="135"/>
+      <c r="L8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="34">
         <v>10</v>
       </c>
-      <c r="N8" s="105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="N8" s="86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="130"/>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="2">
         <v>60</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="99" t="s">
+      <c r="K9" s="135"/>
+      <c r="L9" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="80">
         <v>20</v>
       </c>
-      <c r="N9" s="100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="N9" s="142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="130" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2806,10 +2829,10 @@
       <c r="C10" s="5">
         <v>20</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="130" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -2818,256 +2841,240 @@
       <c r="H10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="95" t="s">
+      <c r="K10" s="135"/>
+      <c r="L10" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="95">
+      <c r="M10" s="76">
         <v>20</v>
       </c>
-      <c r="N10" s="98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="N10" s="143"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="130"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3">
         <v>20</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="130"/>
       <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="99" t="s">
+      <c r="K11" s="135"/>
+      <c r="L11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="80">
         <v>20</v>
       </c>
-      <c r="N11" s="100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="N11" s="143"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="130"/>
       <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="95" t="s">
+      <c r="I12" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="135"/>
+      <c r="L12" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="95">
+      <c r="M12" s="76">
         <v>20</v>
       </c>
-      <c r="N12" s="98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="N12" s="143"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="130"/>
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="I13" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="99" t="s">
+      <c r="I13" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="135"/>
+      <c r="L13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="80">
         <v>20</v>
       </c>
-      <c r="N13" s="100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="N13" s="143"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="130"/>
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="5">
         <v>20</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="5">
         <v>20</v>
       </c>
-      <c r="I14" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="95" t="s">
+      <c r="I14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="135"/>
+      <c r="L14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="95">
+      <c r="M14" s="76">
         <v>20</v>
       </c>
-      <c r="N14" s="98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="N14" s="143"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="130"/>
       <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3">
         <v>20</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="94" t="s">
+      <c r="F15" s="130"/>
+      <c r="G15" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="75">
         <v>20</v>
       </c>
-      <c r="I15" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="99" t="s">
+      <c r="I15" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="135"/>
+      <c r="L15" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="99">
+      <c r="M15" s="80">
         <v>20</v>
       </c>
-      <c r="N15" s="100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="N15" s="143"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="130"/>
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="5">
         <v>40</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="95" t="s">
+      <c r="F16" s="130"/>
+      <c r="G16" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="95" t="s">
+      <c r="K16" s="135"/>
+      <c r="L16" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="95">
+      <c r="M16" s="76">
         <v>20</v>
       </c>
-      <c r="N16" s="98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="N16" s="143"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="130"/>
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="3">
         <v>50</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="94" t="s">
+      <c r="F17" s="130"/>
+      <c r="G17" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="75">
         <v>10</v>
       </c>
-      <c r="I17" s="97" t="s">
+      <c r="I17" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="99" t="s">
+      <c r="K17" s="136"/>
+      <c r="L17" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="99">
+      <c r="M17" s="80">
         <v>20</v>
       </c>
-      <c r="N17" s="100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="N17" s="144"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="130"/>
       <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="5">
         <v>20</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="68" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -3076,132 +3083,132 @@
       <c r="H18" s="5">
         <v>10</v>
       </c>
-      <c r="I18" s="81" t="s">
+      <c r="I18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="95" t="s">
+      <c r="L18" s="76" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="5">
         <v>20</v>
       </c>
-      <c r="N18" s="98" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="N18" s="79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="130"/>
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="3">
         <v>30</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="75">
         <v>20</v>
       </c>
-      <c r="I19" s="100" t="s">
+      <c r="I19" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="94">
+      <c r="M19" s="75">
         <v>20</v>
       </c>
-      <c r="N19" s="97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="N19" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="130"/>
       <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="5">
         <v>50</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="76" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="5">
         <v>20</v>
       </c>
-      <c r="I20" s="98" t="s">
+      <c r="I20" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="95" t="s">
+      <c r="L20" s="76" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="5">
         <v>20</v>
       </c>
-      <c r="N20" s="81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="N20" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="130"/>
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="96" t="s">
+      <c r="F21" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="75">
         <v>20</v>
       </c>
-      <c r="I21" s="100" t="s">
+      <c r="I21" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="K21" s="96" t="s">
+      <c r="K21" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="94" t="s">
+      <c r="L21" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" s="75">
         <v>20</v>
       </c>
-      <c r="N21" s="97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="N21" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="67" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3210,35 +3217,35 @@
       <c r="C22" s="5">
         <v>50</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="82" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="6">
         <v>30</v>
       </c>
-      <c r="I22" s="102" t="s">
+      <c r="I22" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="87" t="s">
+      <c r="K22" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="95" t="s">
+      <c r="L22" s="76" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="5">
         <v>20</v>
       </c>
-      <c r="N22" s="81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>62</v>
       </c>
@@ -3248,24 +3255,24 @@
       <c r="C23" s="3">
         <v>50</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="96" t="s">
+      <c r="K23" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="L23" s="94" t="s">
+      <c r="L23" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="M23" s="94">
+      <c r="M23" s="75">
         <v>20</v>
       </c>
-      <c r="N23" s="97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="N23" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="68" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3274,23 +3281,23 @@
       <c r="C24" s="5">
         <v>40</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="87" t="s">
+      <c r="K24" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="L24" s="95" t="s">
+      <c r="L24" s="76" t="s">
         <v>66</v>
       </c>
       <c r="M24" s="5">
         <v>20</v>
       </c>
-      <c r="N24" s="81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>67</v>
       </c>
@@ -3300,24 +3307,24 @@
       <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="96" t="s">
+      <c r="K25" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="L25" s="99" t="s">
+      <c r="L25" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="94">
+      <c r="M25" s="75">
         <v>20</v>
       </c>
-      <c r="N25" s="97" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="N25" s="78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3326,23 +3333,23 @@
       <c r="C26" s="5">
         <v>20</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="88" t="s">
+      <c r="K26" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="101" t="s">
+      <c r="L26" s="82" t="s">
         <v>66</v>
       </c>
       <c r="M26" s="6">
         <v>20</v>
       </c>
-      <c r="N26" s="102" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
         <v>69</v>
       </c>
@@ -3352,18 +3359,18 @@
       <c r="C27" s="3">
         <v>20</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="87" t="s">
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="68" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3372,23 +3379,23 @@
       <c r="C28" s="5">
         <v>20</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="107" t="s">
+      <c r="G28" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="I28" s="109" t="s">
+      <c r="H28" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="I28" s="90" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>71</v>
       </c>
@@ -3398,24 +3405,24 @@
       <c r="C29" s="3">
         <v>30</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="69" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3424,45 +3431,45 @@
       <c r="C30" s="6">
         <v>20</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="101" t="s">
+      <c r="G30" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="101" t="s">
+      <c r="H30" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="102" t="s">
+      <c r="I30" s="83" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="93"/>
+      <c r="B33" s="94" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="75" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114" t="s">
+      <c r="B34" s="122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:I1"/>
@@ -3474,6 +3481,7 @@
     <mergeCell ref="F10:F17"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="K7:K17"/>
+    <mergeCell ref="N9:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3481,227 +3489,227 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDBF9D-FC0A-4E8F-B695-DFD039599801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="D1" s="117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="97">
+        <v>100</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="116">
-        <v>100</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="D3" s="140">
+        <v>200</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="139"/>
+      <c r="B4" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="124" t="s">
+      <c r="C4" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="125">
-        <v>200</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="103" t="s">
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="139"/>
+      <c r="B5" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C5" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>156</v>
+      <c r="B6" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="2">
         <v>300</v>
       </c>
-      <c r="E6" s="85" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="124" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="124" t="s">
+      <c r="E6" s="66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="140">
+        <v>400</v>
+      </c>
+      <c r="E7" s="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="139"/>
+      <c r="B8" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="139"/>
+      <c r="B9" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="125">
-        <v>400</v>
-      </c>
-      <c r="E7" s="126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="126"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="103" t="s">
+      <c r="B10" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="127" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="B13" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="98"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="116" t="s">
+      <c r="B14" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="117"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="C14" s="138"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B15" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="119"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="C15" s="66"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="85"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -3709,48 +3717,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E657D3ED-60ED-4C23-A389-C9C865BC5EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="132" t="s">
+      <c r="D1" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="132" t="s">
+      <c r="F1" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="133" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="14">
         <v>3</v>
@@ -3763,15 +3771,15 @@
         <v>1152000</v>
       </c>
       <c r="F2" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="C3" s="17">
         <v>3</v>
@@ -3784,15 +3792,15 @@
         <v>486000</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="11">
         <v>3</v>
@@ -3805,15 +3813,15 @@
         <v>481020</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -3826,15 +3834,15 @@
         <v>3656000</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="11">
         <v>6</v>
@@ -3847,15 +3855,15 @@
         <v>842010</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -3868,15 +3876,15 @@
         <v>364000</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="11">
         <v>16</v>
@@ -3889,15 +3897,15 @@
         <v>2044640</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -3910,15 +3918,15 @@
         <v>96620</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -3931,15 +3939,15 @@
         <v>94349</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="19">
         <v>2</v>
@@ -3952,330 +3960,316 @@
         <v>49000</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135">
+        <v>140</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112">
         <f>SUM(C2:C11)</f>
         <v>37</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137">
+      <c r="D12" s="113"/>
+      <c r="E12" s="114">
         <f>SUM(E2:E11)</f>
         <v>9265639</v>
       </c>
-      <c r="F12" s="138"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="115"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
       <c r="D24" s="9"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10"/>
       <c r="D25" s="9"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
       <c r="D26" s="9"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
       <c r="D27" s="9"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
       <c r="D29" s="9"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
       <c r="D32" s="9"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8B129FBF-EDD7-4F70-949C-FAB450B7AAD9}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{316ED962-5DB2-40B7-87EF-B05B86006E31}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{5792110C-3CBC-45C8-B0D8-628A2CC95FFC}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{81940EA3-6D35-49A3-B0D3-C348933D5C84}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{F2FEB2F9-55A5-48B5-979A-5B4524E4E543}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{BA2FE393-53D2-44C3-AC32-6439FC542DA6}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{09B0A119-F501-465E-9AEE-119BF0243B26}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{D368B86E-7C5E-445D-A520-0C2308F8C9B2}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{E93D896A-69D5-4F53-AC17-DFCDF2246812}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{5C4EE946-792F-439C-8708-FE609DAF0C2B}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF94E5D-01FC-437D-B92B-139C6ADE012E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>